--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.920866902798327</v>
+        <v>2.920866902798311</v>
       </c>
       <c r="D2">
-        <v>2.484833725610569</v>
+        <v>2.484833725610502</v>
       </c>
       <c r="E2">
-        <v>9.004175266553721</v>
+        <v>9.004175266553766</v>
       </c>
       <c r="F2">
-        <v>27.10639177926531</v>
+        <v>27.10639177926521</v>
       </c>
       <c r="G2">
-        <v>20.35927963693061</v>
+        <v>20.35927963693048</v>
       </c>
       <c r="H2">
-        <v>20.06499387975206</v>
+        <v>20.06499387975196</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>62.27661452863297</v>
+        <v>62.27661452863287</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>37.82160896007685</v>
+        <v>37.82160896007683</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.692018435121941</v>
+        <v>2.692018435121962</v>
       </c>
       <c r="D3">
-        <v>2.1884559746576</v>
+        <v>2.188455974657351</v>
       </c>
       <c r="E3">
-        <v>8.329354492490067</v>
+        <v>8.329354492490131</v>
       </c>
       <c r="F3">
-        <v>24.74480757789986</v>
+        <v>24.74480757789967</v>
       </c>
       <c r="G3">
-        <v>18.47528789516953</v>
+        <v>18.47528789516933</v>
       </c>
       <c r="H3">
-        <v>18.24701864538391</v>
+        <v>18.24701864538373</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>57.88710017747308</v>
+        <v>57.88710017747295</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.12990762032613</v>
+        <v>35.12990762032605</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.547533560148719</v>
+        <v>2.547533560148674</v>
       </c>
       <c r="D4">
-        <v>2.007494530819465</v>
+        <v>2.007494530819328</v>
       </c>
       <c r="E4">
-        <v>7.97017100237925</v>
+        <v>7.970171002379174</v>
       </c>
       <c r="F4">
-        <v>23.30264684667894</v>
+        <v>23.3026468466788</v>
       </c>
       <c r="G4">
-        <v>17.32412079893501</v>
+        <v>17.32412079893487</v>
       </c>
       <c r="H4">
-        <v>17.12858383592138</v>
+        <v>17.12858383592123</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.06204408104023</v>
+        <v>55.06204408104003</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.40161012809934</v>
+        <v>33.40161012809922</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.487541709044601</v>
+        <v>2.487541709044475</v>
       </c>
       <c r="D5">
-        <v>1.933807232242196</v>
+        <v>1.933807232242012</v>
       </c>
       <c r="E5">
-        <v>7.882875655784451</v>
+        <v>7.882875655784499</v>
       </c>
       <c r="F5">
-        <v>22.71661419008315</v>
+        <v>22.71661419008322</v>
       </c>
       <c r="G5">
-        <v>16.85608882551577</v>
+        <v>16.85608882551582</v>
       </c>
       <c r="H5">
-        <v>16.67185588439384</v>
+        <v>16.67185588439391</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>32.67765524946141</v>
+        <v>32.6776552494614</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.477509789733602</v>
+        <v>2.477509789733645</v>
       </c>
       <c r="D6">
-        <v>1.921569594175237</v>
+        <v>1.921569594175299</v>
       </c>
       <c r="E6">
-        <v>7.868523491463374</v>
+        <v>7.868523491463356</v>
       </c>
       <c r="F6">
-        <v>22.61940130245969</v>
+        <v>22.61940130245977</v>
       </c>
       <c r="G6">
-        <v>16.77843311195337</v>
+        <v>16.77843311195342</v>
       </c>
       <c r="H6">
-        <v>16.59595140537221</v>
+        <v>16.59595140537228</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>53.6783859607968</v>
+        <v>53.67838596079675</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.55623804166683</v>
+        <v>32.55623804166684</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.546729137375183</v>
+        <v>2.546729137375167</v>
       </c>
       <c r="D7">
-        <v>2.006500774646945</v>
+        <v>2.00650077464682</v>
       </c>
       <c r="E7">
-        <v>7.968984095656344</v>
+        <v>7.968984095656376</v>
       </c>
       <c r="F7">
-        <v>23.29473686121274</v>
+        <v>23.29473686121271</v>
       </c>
       <c r="G7">
-        <v>17.31780463196744</v>
+        <v>17.31780463196739</v>
       </c>
       <c r="H7">
-        <v>17.12242848274879</v>
+        <v>17.12242848274873</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.04620202913447</v>
+        <v>55.04620202913433</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.39192702928344</v>
+        <v>33.39192702928336</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.842710526093329</v>
+        <v>2.842710526093336</v>
       </c>
       <c r="D8">
-        <v>2.382302340194605</v>
+        <v>2.382302340194535</v>
       </c>
       <c r="E8">
-        <v>8.774192006780865</v>
+        <v>8.77419200678089</v>
       </c>
       <c r="F8">
         <v>26.29018781373313</v>
       </c>
       <c r="G8">
-        <v>19.70822696408421</v>
+        <v>19.70822696408423</v>
       </c>
       <c r="H8">
-        <v>19.4382920512785</v>
+        <v>19.43829205127851</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.397701154495063</v>
+        <v>3.397701154494997</v>
       </c>
       <c r="D9">
-        <v>3.138155352467388</v>
+        <v>3.138155352467259</v>
       </c>
       <c r="E9">
-        <v>10.39338320990396</v>
+        <v>10.39338320990386</v>
       </c>
       <c r="F9">
-        <v>32.26048809152304</v>
+        <v>32.26048809152308</v>
       </c>
       <c r="G9">
-        <v>24.4711888177781</v>
+        <v>24.47118881777812</v>
       </c>
       <c r="H9">
-        <v>23.99411334208671</v>
+        <v>23.99411334208676</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>71.07186934115383</v>
+        <v>71.07186934115371</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>43.24013764336465</v>
+        <v>43.2401376433646</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.800343382172961</v>
+        <v>3.80034338217289</v>
       </c>
       <c r="D10">
-        <v>3.723934599944766</v>
+        <v>3.72393459994482</v>
       </c>
       <c r="E10">
-        <v>11.54399250448115</v>
+        <v>11.54399250448107</v>
       </c>
       <c r="F10">
-        <v>36.78546357902184</v>
+        <v>36.78546357902218</v>
       </c>
       <c r="G10">
-        <v>28.08581172143322</v>
+        <v>28.08581172143353</v>
       </c>
       <c r="H10">
-        <v>27.41723049022279</v>
+        <v>27.41723049022309</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.11331770955232</v>
+        <v>78.11331770955239</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>47.60567073930761</v>
+        <v>47.60567073930771</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.985500496215317</v>
+        <v>3.985500496215324</v>
       </c>
       <c r="D11">
-        <v>4.002775754513575</v>
+        <v>4.002775754513641</v>
       </c>
       <c r="E11">
-        <v>12.06536818733535</v>
+        <v>12.06536818733528</v>
       </c>
       <c r="F11">
-        <v>38.90319888491985</v>
+        <v>38.90319888491998</v>
       </c>
       <c r="G11">
-        <v>29.77981129595716</v>
+        <v>29.7798112959573</v>
       </c>
       <c r="H11">
-        <v>29.01398272797384</v>
+        <v>29.01398272797397</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>49.54664557714115</v>
+        <v>49.54664557714116</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.056246244866168</v>
+        <v>4.056246244866079</v>
       </c>
       <c r="D12">
-        <v>4.11079074398476</v>
+        <v>4.110790743984756</v>
       </c>
       <c r="E12">
-        <v>12.26324007969451</v>
+        <v>12.26324007969448</v>
       </c>
       <c r="F12">
-        <v>39.71716541239785</v>
+        <v>39.71716541239804</v>
       </c>
       <c r="G12">
-        <v>30.43136129182805</v>
+        <v>30.43136129182815</v>
       </c>
       <c r="H12">
-        <v>29.62702605659213</v>
+        <v>29.62702605659224</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -836,31 +836,31 @@
         <v>4.040975316502087</v>
       </c>
       <c r="D13">
-        <v>4.087407719318742</v>
+        <v>4.087407719318867</v>
       </c>
       <c r="E13">
-        <v>12.22059135712637</v>
+        <v>12.2205913571264</v>
       </c>
       <c r="F13">
-        <v>39.54126045606014</v>
+        <v>39.54126045606007</v>
       </c>
       <c r="G13">
-        <v>30.29053402211589</v>
+        <v>30.29053402211585</v>
       </c>
       <c r="H13">
-        <v>29.49457120958613</v>
+        <v>29.49457120958612</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>82.14825762837522</v>
+        <v>82.14825762837519</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50.11992071419466</v>
+        <v>50.11992071419462</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.991305839728144</v>
+        <v>3.991305839728172</v>
       </c>
       <c r="D14">
-        <v>4.011609285620713</v>
+        <v>4.011609285620723</v>
       </c>
       <c r="E14">
-        <v>12.08163348759311</v>
+        <v>12.08163348759319</v>
       </c>
       <c r="F14">
-        <v>38.96989934995768</v>
+        <v>38.96989934995712</v>
       </c>
       <c r="G14">
-        <v>29.83319288979973</v>
+        <v>29.83319288979928</v>
       </c>
       <c r="H14">
-        <v>29.0642316565945</v>
+        <v>29.06423165659409</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>81.3261162064253</v>
+        <v>81.32611620642517</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>49.60681670292797</v>
+        <v>49.60681670292787</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.960975809331384</v>
+        <v>3.960975809331441</v>
       </c>
       <c r="D15">
-        <v>3.965518450247907</v>
+        <v>3.965518450247703</v>
       </c>
       <c r="E15">
-        <v>11.99660018177641</v>
+        <v>11.99660018177642</v>
       </c>
       <c r="F15">
-        <v>38.6216130241808</v>
+        <v>38.62161302418076</v>
       </c>
       <c r="G15">
-        <v>29.55447176106801</v>
+        <v>29.55447176106795</v>
       </c>
       <c r="H15">
-        <v>28.80182264626292</v>
+        <v>28.80182264626287</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>80.82133784023009</v>
+        <v>80.82133784023004</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>49.29199154441164</v>
+        <v>49.29199154441161</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.788310422358772</v>
+        <v>3.788310422358851</v>
       </c>
       <c r="D16">
-        <v>3.706011805470234</v>
+        <v>3.706011805470313</v>
       </c>
       <c r="E16">
-        <v>11.50993625231713</v>
+        <v>11.50993625231719</v>
       </c>
       <c r="F16">
-        <v>36.64853287092526</v>
+        <v>36.6485328709251</v>
       </c>
       <c r="G16">
-        <v>27.97633495193363</v>
+        <v>27.97633495193351</v>
       </c>
       <c r="H16">
-        <v>27.31388798135193</v>
+        <v>27.31388798135178</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>77.90812091620012</v>
+        <v>77.90812091620019</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>47.47806861635108</v>
+        <v>47.4780686163511</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.683114066583568</v>
+        <v>3.683114066583533</v>
       </c>
       <c r="D17">
-        <v>3.550387605850821</v>
+        <v>3.5503876058507</v>
       </c>
       <c r="E17">
-        <v>11.21132005024532</v>
+        <v>11.21132005024536</v>
       </c>
       <c r="F17">
-        <v>35.4554673986107</v>
+        <v>35.45546739861057</v>
       </c>
       <c r="G17">
-        <v>27.02274214948511</v>
+        <v>27.02274214948498</v>
       </c>
       <c r="H17">
-        <v>26.41290323120686</v>
+        <v>26.41290323120678</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.10039722322254</v>
+        <v>76.10039722322246</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>46.35496748051094</v>
+        <v>46.35496748051089</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.622770482776255</v>
+        <v>3.622770482776227</v>
       </c>
       <c r="D18">
-        <v>3.461993577460643</v>
+        <v>3.461993577460829</v>
       </c>
       <c r="E18">
-        <v>11.03931775607608</v>
+        <v>11.03931775607602</v>
       </c>
       <c r="F18">
-        <v>34.77456595799723</v>
+        <v>34.7745659579974</v>
       </c>
       <c r="G18">
-        <v>26.47871866190429</v>
+        <v>26.47871866190446</v>
       </c>
       <c r="H18">
-        <v>25.8982029394767</v>
+        <v>25.89820293947685</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>75.05227811578602</v>
+        <v>75.05227811578604</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>45.70462555700301</v>
+        <v>45.70462555700302</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.602358032180591</v>
+        <v>3.602358032180577</v>
       </c>
       <c r="D19">
-        <v>3.432239755635779</v>
+        <v>3.432239755636028</v>
       </c>
       <c r="E19">
-        <v>10.98101935412326</v>
+        <v>10.98101935412324</v>
       </c>
       <c r="F19">
-        <v>34.54484804163577</v>
+        <v>34.54484804163586</v>
       </c>
       <c r="G19">
-        <v>26.29521196340083</v>
+        <v>26.29521196340094</v>
       </c>
       <c r="H19">
-        <v>25.72446935863697</v>
+        <v>25.72446935863708</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>74.69589609888983</v>
+        <v>74.69589609888988</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>45.48363185958335</v>
+        <v>45.4836318595834</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.694293363646396</v>
+        <v>3.694293363646465</v>
       </c>
       <c r="D20">
-        <v>3.566834344306212</v>
+        <v>3.566834344306211</v>
       </c>
       <c r="E20">
         <v>11.24312907155818</v>
       </c>
       <c r="F20">
-        <v>35.58189885954185</v>
+        <v>35.58189885954182</v>
       </c>
       <c r="G20">
-        <v>27.12377393732389</v>
+        <v>27.12377393732388</v>
       </c>
       <c r="H20">
-        <v>26.50843298225963</v>
+        <v>26.50843298225961</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.29368107580228</v>
+        <v>76.29368107580234</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>46.47496309533967</v>
+        <v>46.47496309533969</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.005874634653838</v>
+        <v>4.005874634653883</v>
       </c>
       <c r="D21">
-        <v>4.033801286524563</v>
+        <v>4.033801286524557</v>
       </c>
       <c r="E21">
-        <v>12.12242998991315</v>
+        <v>12.12242998991314</v>
       </c>
       <c r="F21">
-        <v>39.13736212457999</v>
+        <v>39.13736212457955</v>
       </c>
       <c r="G21">
-        <v>29.96722393304015</v>
+        <v>29.96722393303981</v>
       </c>
       <c r="H21">
-        <v>29.1903795466775</v>
+        <v>29.19037954667716</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>81.56784199228497</v>
+        <v>81.56784199228481</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>49.7576350427354</v>
+        <v>49.75763504273525</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.21342330415285</v>
+        <v>4.213423304152878</v>
       </c>
       <c r="D22">
-        <v>4.353564890612923</v>
+        <v>4.353564890612976</v>
       </c>
       <c r="E22">
-        <v>12.70016868001596</v>
+        <v>12.70016868001602</v>
       </c>
       <c r="F22">
-        <v>41.53366878839719</v>
+        <v>41.53366878839736</v>
       </c>
       <c r="G22">
-        <v>31.88635598337066</v>
+        <v>31.88635598337082</v>
       </c>
       <c r="H22">
-        <v>30.99398561877169</v>
+        <v>30.99398561877184</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>84.95916340781426</v>
+        <v>84.95916340781442</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>51.87755056824928</v>
+        <v>51.87755056824935</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.10215230664871</v>
+        <v>4.102152306648805</v>
       </c>
       <c r="D23">
-        <v>4.181303042660514</v>
+        <v>4.181303042660587</v>
       </c>
       <c r="E23">
-        <v>12.39123641521237</v>
+        <v>12.39123641521242</v>
       </c>
       <c r="F23">
-        <v>40.24660359470836</v>
+        <v>40.24660359470848</v>
       </c>
       <c r="G23">
-        <v>30.8552966432569</v>
+        <v>30.855296643257</v>
       </c>
       <c r="H23">
-        <v>30.02559644185632</v>
+        <v>30.02559644185641</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>83.15318178470604</v>
+        <v>83.15318178470619</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50.74768902564755</v>
+        <v>50.74768902564766</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.689238806956873</v>
+        <v>3.689238806956929</v>
       </c>
       <c r="D24">
-        <v>3.559395467263902</v>
+        <v>3.55939546726403</v>
       </c>
       <c r="E24">
-        <v>11.22874927401768</v>
+        <v>11.22874927401771</v>
       </c>
       <c r="F24">
-        <v>35.52472384639218</v>
+        <v>35.52472384639193</v>
       </c>
       <c r="G24">
-        <v>27.07808456162337</v>
+        <v>27.07808456162321</v>
       </c>
       <c r="H24">
-        <v>26.46523393312446</v>
+        <v>26.46523393312426</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.20632515384909</v>
+        <v>76.20632515384905</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>46.42072771482781</v>
+        <v>46.42072771482778</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.249334476815556</v>
+        <v>3.249334476815593</v>
       </c>
       <c r="D25">
-        <v>2.929940462609608</v>
+        <v>2.929940462609675</v>
       </c>
       <c r="E25">
-        <v>9.963964737115999</v>
+        <v>9.963964737115989</v>
       </c>
       <c r="F25">
-        <v>30.62865277117536</v>
+        <v>30.62865277117544</v>
       </c>
       <c r="G25">
-        <v>23.16894807978944</v>
+        <v>23.16894807978951</v>
       </c>
       <c r="H25">
-        <v>22.75447429924331</v>
+        <v>22.75447429924337</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>68.38731685672859</v>
+        <v>68.3873168567286</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>41.58246952559301</v>
+        <v>41.58246952559303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.920866902798311</v>
+        <v>2.920866902798327</v>
       </c>
       <c r="D2">
-        <v>2.484833725610502</v>
+        <v>2.484833725610569</v>
       </c>
       <c r="E2">
-        <v>9.004175266553766</v>
+        <v>9.004175266553721</v>
       </c>
       <c r="F2">
-        <v>27.10639177926521</v>
+        <v>27.10639177926531</v>
       </c>
       <c r="G2">
-        <v>20.35927963693048</v>
+        <v>20.35927963693061</v>
       </c>
       <c r="H2">
-        <v>20.06499387975196</v>
+        <v>20.06499387975206</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>62.27661452863287</v>
+        <v>62.27661452863297</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>37.82160896007683</v>
+        <v>37.82160896007685</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.692018435121962</v>
+        <v>2.692018435121941</v>
       </c>
       <c r="D3">
-        <v>2.188455974657351</v>
+        <v>2.1884559746576</v>
       </c>
       <c r="E3">
-        <v>8.329354492490131</v>
+        <v>8.329354492490067</v>
       </c>
       <c r="F3">
-        <v>24.74480757789967</v>
+        <v>24.74480757789986</v>
       </c>
       <c r="G3">
-        <v>18.47528789516933</v>
+        <v>18.47528789516953</v>
       </c>
       <c r="H3">
-        <v>18.24701864538373</v>
+        <v>18.24701864538391</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>57.88710017747295</v>
+        <v>57.88710017747308</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.12990762032605</v>
+        <v>35.12990762032613</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.547533560148674</v>
+        <v>2.547533560148719</v>
       </c>
       <c r="D4">
-        <v>2.007494530819328</v>
+        <v>2.007494530819465</v>
       </c>
       <c r="E4">
-        <v>7.970171002379174</v>
+        <v>7.97017100237925</v>
       </c>
       <c r="F4">
-        <v>23.3026468466788</v>
+        <v>23.30264684667894</v>
       </c>
       <c r="G4">
-        <v>17.32412079893487</v>
+        <v>17.32412079893501</v>
       </c>
       <c r="H4">
-        <v>17.12858383592123</v>
+        <v>17.12858383592138</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.06204408104003</v>
+        <v>55.06204408104023</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>33.40161012809922</v>
+        <v>33.40161012809934</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.487541709044475</v>
+        <v>2.487541709044601</v>
       </c>
       <c r="D5">
-        <v>1.933807232242012</v>
+        <v>1.933807232242196</v>
       </c>
       <c r="E5">
-        <v>7.882875655784499</v>
+        <v>7.882875655784451</v>
       </c>
       <c r="F5">
-        <v>22.71661419008322</v>
+        <v>22.71661419008315</v>
       </c>
       <c r="G5">
-        <v>16.85608882551582</v>
+        <v>16.85608882551577</v>
       </c>
       <c r="H5">
-        <v>16.67185588439391</v>
+        <v>16.67185588439384</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>32.6776552494614</v>
+        <v>32.67765524946141</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.477509789733645</v>
+        <v>2.477509789733602</v>
       </c>
       <c r="D6">
-        <v>1.921569594175299</v>
+        <v>1.921569594175237</v>
       </c>
       <c r="E6">
-        <v>7.868523491463356</v>
+        <v>7.868523491463374</v>
       </c>
       <c r="F6">
-        <v>22.61940130245977</v>
+        <v>22.61940130245969</v>
       </c>
       <c r="G6">
-        <v>16.77843311195342</v>
+        <v>16.77843311195337</v>
       </c>
       <c r="H6">
-        <v>16.59595140537228</v>
+        <v>16.59595140537221</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>53.67838596079675</v>
+        <v>53.6783859607968</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>32.55623804166684</v>
+        <v>32.55623804166683</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.546729137375167</v>
+        <v>2.546729137375183</v>
       </c>
       <c r="D7">
-        <v>2.00650077464682</v>
+        <v>2.006500774646945</v>
       </c>
       <c r="E7">
-        <v>7.968984095656376</v>
+        <v>7.968984095656344</v>
       </c>
       <c r="F7">
-        <v>23.29473686121271</v>
+        <v>23.29473686121274</v>
       </c>
       <c r="G7">
-        <v>17.31780463196739</v>
+        <v>17.31780463196744</v>
       </c>
       <c r="H7">
-        <v>17.12242848274873</v>
+        <v>17.12242848274879</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.04620202913433</v>
+        <v>55.04620202913447</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>33.39192702928336</v>
+        <v>33.39192702928344</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.842710526093336</v>
+        <v>2.842710526093329</v>
       </c>
       <c r="D8">
-        <v>2.382302340194535</v>
+        <v>2.382302340194605</v>
       </c>
       <c r="E8">
-        <v>8.77419200678089</v>
+        <v>8.774192006780865</v>
       </c>
       <c r="F8">
         <v>26.29018781373313</v>
       </c>
       <c r="G8">
-        <v>19.70822696408423</v>
+        <v>19.70822696408421</v>
       </c>
       <c r="H8">
-        <v>19.43829205127851</v>
+        <v>19.4382920512785</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.397701154494997</v>
+        <v>3.397701154495063</v>
       </c>
       <c r="D9">
-        <v>3.138155352467259</v>
+        <v>3.138155352467388</v>
       </c>
       <c r="E9">
-        <v>10.39338320990386</v>
+        <v>10.39338320990396</v>
       </c>
       <c r="F9">
-        <v>32.26048809152308</v>
+        <v>32.26048809152304</v>
       </c>
       <c r="G9">
-        <v>24.47118881777812</v>
+        <v>24.4711888177781</v>
       </c>
       <c r="H9">
-        <v>23.99411334208676</v>
+        <v>23.99411334208671</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>71.07186934115371</v>
+        <v>71.07186934115383</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>43.2401376433646</v>
+        <v>43.24013764336465</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.80034338217289</v>
+        <v>3.800343382172961</v>
       </c>
       <c r="D10">
-        <v>3.72393459994482</v>
+        <v>3.723934599944766</v>
       </c>
       <c r="E10">
-        <v>11.54399250448107</v>
+        <v>11.54399250448115</v>
       </c>
       <c r="F10">
-        <v>36.78546357902218</v>
+        <v>36.78546357902184</v>
       </c>
       <c r="G10">
-        <v>28.08581172143353</v>
+        <v>28.08581172143322</v>
       </c>
       <c r="H10">
-        <v>27.41723049022309</v>
+        <v>27.41723049022279</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.11331770955239</v>
+        <v>78.11331770955232</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>47.60567073930771</v>
+        <v>47.60567073930761</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.985500496215324</v>
+        <v>3.985500496215317</v>
       </c>
       <c r="D11">
-        <v>4.002775754513641</v>
+        <v>4.002775754513575</v>
       </c>
       <c r="E11">
-        <v>12.06536818733528</v>
+        <v>12.06536818733535</v>
       </c>
       <c r="F11">
-        <v>38.90319888491998</v>
+        <v>38.90319888491985</v>
       </c>
       <c r="G11">
-        <v>29.7798112959573</v>
+        <v>29.77981129595716</v>
       </c>
       <c r="H11">
-        <v>29.01398272797397</v>
+        <v>29.01398272797384</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>49.54664557714116</v>
+        <v>49.54664557714115</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.056246244866079</v>
+        <v>4.056246244866168</v>
       </c>
       <c r="D12">
-        <v>4.110790743984756</v>
+        <v>4.11079074398476</v>
       </c>
       <c r="E12">
-        <v>12.26324007969448</v>
+        <v>12.26324007969451</v>
       </c>
       <c r="F12">
-        <v>39.71716541239804</v>
+        <v>39.71716541239785</v>
       </c>
       <c r="G12">
-        <v>30.43136129182815</v>
+        <v>30.43136129182805</v>
       </c>
       <c r="H12">
-        <v>29.62702605659224</v>
+        <v>29.62702605659213</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -836,31 +836,31 @@
         <v>4.040975316502087</v>
       </c>
       <c r="D13">
-        <v>4.087407719318867</v>
+        <v>4.087407719318742</v>
       </c>
       <c r="E13">
-        <v>12.2205913571264</v>
+        <v>12.22059135712637</v>
       </c>
       <c r="F13">
-        <v>39.54126045606007</v>
+        <v>39.54126045606014</v>
       </c>
       <c r="G13">
-        <v>30.29053402211585</v>
+        <v>30.29053402211589</v>
       </c>
       <c r="H13">
-        <v>29.49457120958612</v>
+        <v>29.49457120958613</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>82.14825762837519</v>
+        <v>82.14825762837522</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>50.11992071419462</v>
+        <v>50.11992071419466</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.991305839728172</v>
+        <v>3.991305839728144</v>
       </c>
       <c r="D14">
-        <v>4.011609285620723</v>
+        <v>4.011609285620713</v>
       </c>
       <c r="E14">
-        <v>12.08163348759319</v>
+        <v>12.08163348759311</v>
       </c>
       <c r="F14">
-        <v>38.96989934995712</v>
+        <v>38.96989934995768</v>
       </c>
       <c r="G14">
-        <v>29.83319288979928</v>
+        <v>29.83319288979973</v>
       </c>
       <c r="H14">
-        <v>29.06423165659409</v>
+        <v>29.0642316565945</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>81.32611620642517</v>
+        <v>81.3261162064253</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>49.60681670292787</v>
+        <v>49.60681670292797</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.960975809331441</v>
+        <v>3.960975809331384</v>
       </c>
       <c r="D15">
-        <v>3.965518450247703</v>
+        <v>3.965518450247907</v>
       </c>
       <c r="E15">
-        <v>11.99660018177642</v>
+        <v>11.99660018177641</v>
       </c>
       <c r="F15">
-        <v>38.62161302418076</v>
+        <v>38.6216130241808</v>
       </c>
       <c r="G15">
-        <v>29.55447176106795</v>
+        <v>29.55447176106801</v>
       </c>
       <c r="H15">
-        <v>28.80182264626287</v>
+        <v>28.80182264626292</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>80.82133784023004</v>
+        <v>80.82133784023009</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>49.29199154441161</v>
+        <v>49.29199154441164</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.788310422358851</v>
+        <v>3.788310422358772</v>
       </c>
       <c r="D16">
-        <v>3.706011805470313</v>
+        <v>3.706011805470234</v>
       </c>
       <c r="E16">
-        <v>11.50993625231719</v>
+        <v>11.50993625231713</v>
       </c>
       <c r="F16">
-        <v>36.6485328709251</v>
+        <v>36.64853287092526</v>
       </c>
       <c r="G16">
-        <v>27.97633495193351</v>
+        <v>27.97633495193363</v>
       </c>
       <c r="H16">
-        <v>27.31388798135178</v>
+        <v>27.31388798135193</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>77.90812091620019</v>
+        <v>77.90812091620012</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>47.4780686163511</v>
+        <v>47.47806861635108</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.683114066583533</v>
+        <v>3.683114066583568</v>
       </c>
       <c r="D17">
-        <v>3.5503876058507</v>
+        <v>3.550387605850821</v>
       </c>
       <c r="E17">
-        <v>11.21132005024536</v>
+        <v>11.21132005024532</v>
       </c>
       <c r="F17">
-        <v>35.45546739861057</v>
+        <v>35.4554673986107</v>
       </c>
       <c r="G17">
-        <v>27.02274214948498</v>
+        <v>27.02274214948511</v>
       </c>
       <c r="H17">
-        <v>26.41290323120678</v>
+        <v>26.41290323120686</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.10039722322246</v>
+        <v>76.10039722322254</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>46.35496748051089</v>
+        <v>46.35496748051094</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.622770482776227</v>
+        <v>3.622770482776255</v>
       </c>
       <c r="D18">
-        <v>3.461993577460829</v>
+        <v>3.461993577460643</v>
       </c>
       <c r="E18">
-        <v>11.03931775607602</v>
+        <v>11.03931775607608</v>
       </c>
       <c r="F18">
-        <v>34.7745659579974</v>
+        <v>34.77456595799723</v>
       </c>
       <c r="G18">
-        <v>26.47871866190446</v>
+        <v>26.47871866190429</v>
       </c>
       <c r="H18">
-        <v>25.89820293947685</v>
+        <v>25.8982029394767</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>75.05227811578604</v>
+        <v>75.05227811578602</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>45.70462555700302</v>
+        <v>45.70462555700301</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.602358032180577</v>
+        <v>3.602358032180591</v>
       </c>
       <c r="D19">
-        <v>3.432239755636028</v>
+        <v>3.432239755635779</v>
       </c>
       <c r="E19">
-        <v>10.98101935412324</v>
+        <v>10.98101935412326</v>
       </c>
       <c r="F19">
-        <v>34.54484804163586</v>
+        <v>34.54484804163577</v>
       </c>
       <c r="G19">
-        <v>26.29521196340094</v>
+        <v>26.29521196340083</v>
       </c>
       <c r="H19">
-        <v>25.72446935863708</v>
+        <v>25.72446935863697</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>74.69589609888988</v>
+        <v>74.69589609888983</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>45.4836318595834</v>
+        <v>45.48363185958335</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.694293363646465</v>
+        <v>3.694293363646396</v>
       </c>
       <c r="D20">
-        <v>3.566834344306211</v>
+        <v>3.566834344306212</v>
       </c>
       <c r="E20">
         <v>11.24312907155818</v>
       </c>
       <c r="F20">
-        <v>35.58189885954182</v>
+        <v>35.58189885954185</v>
       </c>
       <c r="G20">
-        <v>27.12377393732388</v>
+        <v>27.12377393732389</v>
       </c>
       <c r="H20">
-        <v>26.50843298225961</v>
+        <v>26.50843298225963</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.29368107580234</v>
+        <v>76.29368107580228</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>46.47496309533969</v>
+        <v>46.47496309533967</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.005874634653883</v>
+        <v>4.005874634653838</v>
       </c>
       <c r="D21">
-        <v>4.033801286524557</v>
+        <v>4.033801286524563</v>
       </c>
       <c r="E21">
-        <v>12.12242998991314</v>
+        <v>12.12242998991315</v>
       </c>
       <c r="F21">
-        <v>39.13736212457955</v>
+        <v>39.13736212457999</v>
       </c>
       <c r="G21">
-        <v>29.96722393303981</v>
+        <v>29.96722393304015</v>
       </c>
       <c r="H21">
-        <v>29.19037954667716</v>
+        <v>29.1903795466775</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>81.56784199228481</v>
+        <v>81.56784199228497</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>49.75763504273525</v>
+        <v>49.7576350427354</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.213423304152878</v>
+        <v>4.21342330415285</v>
       </c>
       <c r="D22">
-        <v>4.353564890612976</v>
+        <v>4.353564890612923</v>
       </c>
       <c r="E22">
-        <v>12.70016868001602</v>
+        <v>12.70016868001596</v>
       </c>
       <c r="F22">
-        <v>41.53366878839736</v>
+        <v>41.53366878839719</v>
       </c>
       <c r="G22">
-        <v>31.88635598337082</v>
+        <v>31.88635598337066</v>
       </c>
       <c r="H22">
-        <v>30.99398561877184</v>
+        <v>30.99398561877169</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>84.95916340781442</v>
+        <v>84.95916340781426</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>51.87755056824935</v>
+        <v>51.87755056824928</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.102152306648805</v>
+        <v>4.10215230664871</v>
       </c>
       <c r="D23">
-        <v>4.181303042660587</v>
+        <v>4.181303042660514</v>
       </c>
       <c r="E23">
-        <v>12.39123641521242</v>
+        <v>12.39123641521237</v>
       </c>
       <c r="F23">
-        <v>40.24660359470848</v>
+        <v>40.24660359470836</v>
       </c>
       <c r="G23">
-        <v>30.855296643257</v>
+        <v>30.8552966432569</v>
       </c>
       <c r="H23">
-        <v>30.02559644185641</v>
+        <v>30.02559644185632</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>83.15318178470619</v>
+        <v>83.15318178470604</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>50.74768902564766</v>
+        <v>50.74768902564755</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.689238806956929</v>
+        <v>3.689238806956873</v>
       </c>
       <c r="D24">
-        <v>3.55939546726403</v>
+        <v>3.559395467263902</v>
       </c>
       <c r="E24">
-        <v>11.22874927401771</v>
+        <v>11.22874927401768</v>
       </c>
       <c r="F24">
-        <v>35.52472384639193</v>
+        <v>35.52472384639218</v>
       </c>
       <c r="G24">
-        <v>27.07808456162321</v>
+        <v>27.07808456162337</v>
       </c>
       <c r="H24">
-        <v>26.46523393312426</v>
+        <v>26.46523393312446</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.20632515384905</v>
+        <v>76.20632515384909</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>46.42072771482778</v>
+        <v>46.42072771482781</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.249334476815593</v>
+        <v>3.249334476815556</v>
       </c>
       <c r="D25">
-        <v>2.929940462609675</v>
+        <v>2.929940462609608</v>
       </c>
       <c r="E25">
-        <v>9.963964737115989</v>
+        <v>9.963964737115999</v>
       </c>
       <c r="F25">
-        <v>30.62865277117544</v>
+        <v>30.62865277117536</v>
       </c>
       <c r="G25">
-        <v>23.16894807978951</v>
+        <v>23.16894807978944</v>
       </c>
       <c r="H25">
-        <v>22.75447429924337</v>
+        <v>22.75447429924331</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>68.3873168567286</v>
+        <v>68.38731685672859</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>41.58246952559303</v>
+        <v>41.58246952559301</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.920866902798327</v>
+        <v>2.923087112071117</v>
       </c>
       <c r="D2">
-        <v>2.484833725610569</v>
+        <v>2.48473719348135</v>
       </c>
       <c r="E2">
-        <v>9.004175266553721</v>
+        <v>9.004730863254787</v>
       </c>
       <c r="F2">
-        <v>27.10639177926531</v>
+        <v>27.08741430327926</v>
       </c>
       <c r="G2">
-        <v>20.35927963693061</v>
+        <v>20.39201584336018</v>
       </c>
       <c r="H2">
-        <v>20.06499387975206</v>
+        <v>19.88351799363845</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.05061384723341</v>
       </c>
       <c r="J2">
-        <v>62.27661452863297</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>62.27456486548989</v>
       </c>
       <c r="L2">
-        <v>37.82160896007685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>37.82020957314312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.692018435121941</v>
+        <v>2.694261983413312</v>
       </c>
       <c r="D3">
-        <v>2.1884559746576</v>
+        <v>2.188739632056343</v>
       </c>
       <c r="E3">
-        <v>8.329354492490067</v>
+        <v>8.329736393078555</v>
       </c>
       <c r="F3">
-        <v>24.74480757789986</v>
+        <v>24.72754138145968</v>
       </c>
       <c r="G3">
-        <v>18.47528789516953</v>
+        <v>18.50512148738375</v>
       </c>
       <c r="H3">
-        <v>18.24701864538391</v>
+        <v>18.12339997497072</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.23392886556663</v>
       </c>
       <c r="J3">
-        <v>57.88710017747308</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>57.88553085179322</v>
       </c>
       <c r="L3">
-        <v>35.12990762032613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.12884014327733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.547533560148719</v>
+        <v>2.549777959940237</v>
       </c>
       <c r="D4">
-        <v>2.007494530819465</v>
+        <v>2.008005564426023</v>
       </c>
       <c r="E4">
-        <v>7.97017100237925</v>
+        <v>7.969507060980558</v>
       </c>
       <c r="F4">
-        <v>23.30264684667894</v>
+        <v>23.28640080654499</v>
       </c>
       <c r="G4">
-        <v>17.32412079893501</v>
+        <v>17.35219171457114</v>
       </c>
       <c r="H4">
-        <v>17.12858383592138</v>
+        <v>17.06333424779986</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.11626300753545</v>
       </c>
       <c r="J4">
-        <v>55.06204408104023</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>55.06074647517232</v>
       </c>
       <c r="L4">
-        <v>33.40161012809934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>33.4007298944441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.487541709044601</v>
+        <v>2.489783359007773</v>
       </c>
       <c r="D5">
-        <v>1.933807232242196</v>
+        <v>1.934409790590336</v>
       </c>
       <c r="E5">
-        <v>7.882875655784451</v>
+        <v>7.882224020904419</v>
       </c>
       <c r="F5">
-        <v>22.71661419008315</v>
+        <v>22.70077801019678</v>
       </c>
       <c r="G5">
-        <v>16.85608882551577</v>
+        <v>16.88344760186516</v>
       </c>
       <c r="H5">
-        <v>16.67185588439384</v>
+        <v>16.73365614963065</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.65984389321321</v>
       </c>
       <c r="J5">
-        <v>53.8771874678882</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>53.87599602330354</v>
       </c>
       <c r="L5">
-        <v>32.67765524946141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>32.67684803997476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.477509789733602</v>
+        <v>2.479750803756374</v>
       </c>
       <c r="D6">
-        <v>1.921569594175237</v>
+        <v>1.922187291573987</v>
       </c>
       <c r="E6">
-        <v>7.868523491463374</v>
+        <v>7.867874312027369</v>
       </c>
       <c r="F6">
-        <v>22.61940130245969</v>
+        <v>22.60363287037257</v>
       </c>
       <c r="G6">
-        <v>16.77843311195337</v>
+        <v>16.80567405392289</v>
       </c>
       <c r="H6">
-        <v>16.59595140537221</v>
+        <v>16.68155416493551</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.58399045599133</v>
       </c>
       <c r="J6">
-        <v>53.6783859607968</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>53.67721190157388</v>
       </c>
       <c r="L6">
-        <v>32.55623804166683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>32.55544278269352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.546729137375183</v>
+        <v>2.548973512266735</v>
       </c>
       <c r="D7">
-        <v>2.006500774646945</v>
+        <v>2.007013046718756</v>
       </c>
       <c r="E7">
-        <v>7.968984095656344</v>
+        <v>7.968320292497569</v>
       </c>
       <c r="F7">
-        <v>23.29473686121274</v>
+        <v>23.27849637024726</v>
       </c>
       <c r="G7">
-        <v>17.31780463196744</v>
+        <v>17.34586591656966</v>
       </c>
       <c r="H7">
-        <v>17.12242848274879</v>
+        <v>17.0575564241474</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.11011183622839</v>
       </c>
       <c r="J7">
-        <v>55.04620202913447</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>55.04490587196062</v>
       </c>
       <c r="L7">
-        <v>33.39192702928344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>33.39104779267882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.842710526093329</v>
+        <v>2.844941771714646</v>
       </c>
       <c r="D8">
-        <v>2.382302340194605</v>
+        <v>2.382338419370963</v>
       </c>
       <c r="E8">
-        <v>8.774192006780865</v>
+        <v>8.774685728743005</v>
       </c>
       <c r="F8">
-        <v>26.29018781373313</v>
+        <v>26.27180798674258</v>
       </c>
       <c r="G8">
-        <v>19.70822696408421</v>
+        <v>19.73995894261799</v>
       </c>
       <c r="H8">
-        <v>19.4382920512785</v>
+        <v>19.27219759126772</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>19.42436264892763</v>
       </c>
       <c r="J8">
-        <v>60.78944930421292</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>60.78757091577208</v>
       </c>
       <c r="L8">
-        <v>36.90877775377997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>36.90749682878381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.397701154495063</v>
+        <v>3.399783343692481</v>
       </c>
       <c r="D9">
-        <v>3.138155352467388</v>
+        <v>3.137186163544656</v>
       </c>
       <c r="E9">
-        <v>10.39338320990396</v>
+        <v>10.39436363981365</v>
       </c>
       <c r="F9">
-        <v>32.26048809152304</v>
+        <v>32.23755683032658</v>
       </c>
       <c r="G9">
-        <v>24.4711888177781</v>
+        <v>24.51023414918029</v>
       </c>
       <c r="H9">
-        <v>23.99411334208671</v>
+        <v>23.79991237698269</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>23.97675264160609</v>
       </c>
       <c r="J9">
-        <v>71.07186934115383</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>71.0685924416016</v>
       </c>
       <c r="L9">
-        <v>43.24013764336465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>43.237886778765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.800343382172961</v>
+        <v>3.802210872158308</v>
       </c>
       <c r="D10">
-        <v>3.723934599944766</v>
+        <v>3.722138141699676</v>
       </c>
       <c r="E10">
-        <v>11.54399250448115</v>
+        <v>11.54537716389084</v>
       </c>
       <c r="F10">
-        <v>36.78546357902184</v>
+        <v>36.75874437136086</v>
       </c>
       <c r="G10">
-        <v>28.08581172143322</v>
+        <v>28.13025813772027</v>
       </c>
       <c r="H10">
-        <v>27.41723049022279</v>
+        <v>27.29685300414074</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>27.39701586262034</v>
       </c>
       <c r="J10">
-        <v>78.11331770955232</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>78.10871920426359</v>
       </c>
       <c r="L10">
-        <v>47.60567073930761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>47.60249897116648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.985500496215317</v>
+        <v>3.987237612925999</v>
       </c>
       <c r="D11">
-        <v>4.002775754513575</v>
+        <v>4.000568151924218</v>
       </c>
       <c r="E11">
-        <v>12.06536818733535</v>
+        <v>12.06694624858937</v>
       </c>
       <c r="F11">
-        <v>38.90319888491985</v>
+        <v>38.87457974671531</v>
       </c>
       <c r="G11">
-        <v>29.77981129595716</v>
+        <v>29.82671065483012</v>
       </c>
       <c r="H11">
-        <v>29.01398272797384</v>
+        <v>28.9473640505139</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>28.99233734239232</v>
       </c>
       <c r="J11">
-        <v>81.22965985901382</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>81.22434907961191</v>
       </c>
       <c r="L11">
-        <v>49.54664557714115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>49.54297606209813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.056246244866168</v>
+        <v>4.057928089154542</v>
       </c>
       <c r="D12">
-        <v>4.11079074398476</v>
+        <v>4.108420501268353</v>
       </c>
       <c r="E12">
-        <v>12.26324007969451</v>
+        <v>12.26489253749262</v>
       </c>
       <c r="F12">
-        <v>39.71716541239785</v>
+        <v>39.68779120416489</v>
       </c>
       <c r="G12">
-        <v>30.43136129182805</v>
+        <v>30.47918740922249</v>
       </c>
       <c r="H12">
-        <v>29.62702605659213</v>
+        <v>29.58376391618566</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>29.60481217948579</v>
       </c>
       <c r="J12">
-        <v>82.39990137049465</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>82.39429895797272</v>
       </c>
       <c r="L12">
-        <v>50.27705930254213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>50.27318571782947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.040975316502087</v>
+        <v>4.042669351071136</v>
       </c>
       <c r="D13">
-        <v>4.087407719318742</v>
+        <v>4.08507285218321</v>
       </c>
       <c r="E13">
-        <v>12.22059135712637</v>
+        <v>12.2222277465665</v>
       </c>
       <c r="F13">
-        <v>39.54126045606014</v>
+        <v>39.51205065551746</v>
       </c>
       <c r="G13">
-        <v>30.29053402211589</v>
+        <v>30.33816067581783</v>
       </c>
       <c r="H13">
-        <v>29.49457120958613</v>
+        <v>29.44614267149191</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>29.47248110928981</v>
       </c>
       <c r="J13">
-        <v>82.14825762837522</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>82.14271911880292</v>
       </c>
       <c r="L13">
-        <v>50.11992071419466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>50.11609185876451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.991305839728144</v>
+        <v>3.99303853586964</v>
       </c>
       <c r="D14">
-        <v>4.011609285620713</v>
+        <v>4.009388455583828</v>
       </c>
       <c r="E14">
-        <v>12.08163348759311</v>
+        <v>12.083217648267</v>
       </c>
       <c r="F14">
-        <v>38.96989934995768</v>
+        <v>38.94121887805915</v>
       </c>
       <c r="G14">
-        <v>29.83319288979973</v>
+        <v>29.88016854867474</v>
       </c>
       <c r="H14">
-        <v>29.0642316565945</v>
+        <v>28.99947346896041</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>29.04254009046126</v>
       </c>
       <c r="J14">
-        <v>81.3261162064253</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>81.32078191566663</v>
       </c>
       <c r="L14">
-        <v>49.60681670292797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>49.60313074165285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.960975809331384</v>
+        <v>3.962731375169812</v>
       </c>
       <c r="D15">
-        <v>3.965518450247907</v>
+        <v>3.963366496126138</v>
       </c>
       <c r="E15">
-        <v>11.99660018177641</v>
+        <v>11.99815249184599</v>
       </c>
       <c r="F15">
-        <v>38.6216130241808</v>
+        <v>38.5932517742224</v>
       </c>
       <c r="G15">
-        <v>29.55447176106801</v>
+        <v>29.60104832790603</v>
       </c>
       <c r="H15">
-        <v>28.80182264626292</v>
+        <v>28.72745745670765</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>28.78037143975002</v>
       </c>
       <c r="J15">
-        <v>80.82133784023009</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>80.8161255705686</v>
       </c>
       <c r="L15">
-        <v>49.29199154441164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>49.28839092598011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.788310422358772</v>
+        <v>3.790185681033144</v>
       </c>
       <c r="D16">
-        <v>3.706011805470234</v>
+        <v>3.704241365629458</v>
       </c>
       <c r="E16">
-        <v>11.50993625231713</v>
+        <v>11.51130845067418</v>
       </c>
       <c r="F16">
-        <v>36.64853287092526</v>
+        <v>36.62193348519958</v>
       </c>
       <c r="G16">
-        <v>27.97633495193363</v>
+        <v>28.0206208712102</v>
       </c>
       <c r="H16">
-        <v>27.31388798135193</v>
+        <v>27.19040915097095</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>27.29376360169519</v>
       </c>
       <c r="J16">
-        <v>77.90812091620012</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>77.90356626625255</v>
       </c>
       <c r="L16">
-        <v>47.47806861635108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>47.47492746342319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.683114066583568</v>
+        <v>3.685053643822001</v>
       </c>
       <c r="D17">
-        <v>3.550387605850821</v>
+        <v>3.548841121823404</v>
       </c>
       <c r="E17">
-        <v>11.21132005024532</v>
+        <v>11.21258410335276</v>
       </c>
       <c r="F17">
-        <v>35.4554673986107</v>
+        <v>35.42989745759495</v>
       </c>
       <c r="G17">
-        <v>27.02274214948511</v>
+        <v>27.06562097344655</v>
       </c>
       <c r="H17">
-        <v>26.41290323120686</v>
+        <v>26.26449880960305</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>26.39355428895724</v>
       </c>
       <c r="J17">
-        <v>76.10039722322254</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>76.09621397783557</v>
       </c>
       <c r="L17">
-        <v>46.35496748051094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>46.35208545282046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.622770482776255</v>
+        <v>3.624744066807517</v>
       </c>
       <c r="D18">
-        <v>3.461993577460643</v>
+        <v>3.460572778735453</v>
       </c>
       <c r="E18">
-        <v>11.03931775607608</v>
+        <v>11.04052052287041</v>
       </c>
       <c r="F18">
-        <v>34.77456595799723</v>
+        <v>34.74957227284708</v>
       </c>
       <c r="G18">
-        <v>26.47871866190429</v>
+        <v>26.52078790824953</v>
       </c>
       <c r="H18">
-        <v>25.8982029394767</v>
+        <v>25.7373491787135</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.87928812700392</v>
       </c>
       <c r="J18">
-        <v>75.05227811578602</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>75.04829849446337</v>
       </c>
       <c r="L18">
-        <v>45.70462555700301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>45.70188547927176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.602358032180591</v>
+        <v>3.604342647442482</v>
       </c>
       <c r="D19">
-        <v>3.432239755635779</v>
+        <v>3.430861022843643</v>
       </c>
       <c r="E19">
-        <v>10.98101935412326</v>
+        <v>10.98220153102538</v>
       </c>
       <c r="F19">
-        <v>34.54484804163577</v>
+        <v>34.5200469957617</v>
       </c>
       <c r="G19">
-        <v>26.29521196340083</v>
+        <v>26.33700708973851</v>
       </c>
       <c r="H19">
-        <v>25.72446935863697</v>
+        <v>25.55972333344536</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.70569968321593</v>
       </c>
       <c r="J19">
-        <v>74.69589609888983</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>74.69198385106679</v>
       </c>
       <c r="L19">
-        <v>45.48363185958335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>45.48093873054331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.694293363646396</v>
+        <v>3.696226410672105</v>
       </c>
       <c r="D20">
-        <v>3.566834344306212</v>
+        <v>3.565264355418914</v>
       </c>
       <c r="E20">
-        <v>11.24312907155818</v>
+        <v>11.24440454298555</v>
       </c>
       <c r="F20">
-        <v>35.58189885954185</v>
+        <v>35.55622103506852</v>
       </c>
       <c r="G20">
-        <v>27.12377393732389</v>
+        <v>27.16680258340165</v>
       </c>
       <c r="H20">
-        <v>26.50843298225963</v>
+        <v>26.3624862458882</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>26.48900276947031</v>
       </c>
       <c r="J20">
-        <v>76.29368107580228</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>76.28945936466287</v>
       </c>
       <c r="L20">
-        <v>46.47496309533967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>46.472054243122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.005874634653838</v>
+        <v>4.007596146883671</v>
       </c>
       <c r="D21">
-        <v>4.033801286524563</v>
+        <v>4.031547168810853</v>
       </c>
       <c r="E21">
-        <v>12.12242998991315</v>
+        <v>12.12402946277206</v>
       </c>
       <c r="F21">
-        <v>39.13736212457999</v>
+        <v>39.10852724365847</v>
       </c>
       <c r="G21">
-        <v>29.96722393304015</v>
+        <v>30.01439087978878</v>
       </c>
       <c r="H21">
-        <v>29.1903795466775</v>
+        <v>29.13033504129766</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>29.16857172186639</v>
       </c>
       <c r="J21">
-        <v>81.56784199228497</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>81.56244837111569</v>
       </c>
       <c r="L21">
-        <v>49.7576350427354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>49.75390757521223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.21342330415285</v>
+        <v>4.214971246578926</v>
       </c>
       <c r="D22">
-        <v>4.353564890612923</v>
+        <v>4.35082163785894</v>
       </c>
       <c r="E22">
-        <v>12.70016868001596</v>
+        <v>12.70198636653829</v>
       </c>
       <c r="F22">
-        <v>41.53366878839719</v>
+        <v>41.50255499844601</v>
       </c>
       <c r="G22">
-        <v>31.88635598337066</v>
+        <v>31.9362135501527</v>
       </c>
       <c r="H22">
-        <v>30.99398561877169</v>
+        <v>31.0076952453124</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>30.97046225360138</v>
       </c>
       <c r="J22">
-        <v>84.95916340781426</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>84.9528714824333</v>
       </c>
       <c r="L22">
-        <v>51.87755056824928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>51.87319388524967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.10215230664871</v>
+        <v>4.103796638921414</v>
       </c>
       <c r="D23">
-        <v>4.181303042660514</v>
+        <v>4.17882555065485</v>
       </c>
       <c r="E23">
-        <v>12.39123641521237</v>
+        <v>12.39293718362078</v>
       </c>
       <c r="F23">
-        <v>40.24660359470836</v>
+        <v>40.21673034864632</v>
       </c>
       <c r="G23">
-        <v>30.8552966432569</v>
+        <v>30.90372028501316</v>
       </c>
       <c r="H23">
-        <v>30.02559644185632</v>
+        <v>29.99826799597761</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>30.00300687523005</v>
       </c>
       <c r="J23">
-        <v>83.15318178470604</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>83.14738404811925</v>
       </c>
       <c r="L23">
-        <v>50.74768902564755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>50.74367867655489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.689238806956873</v>
+        <v>3.691174815461166</v>
       </c>
       <c r="D24">
-        <v>3.559395467263902</v>
+        <v>3.557836114350362</v>
       </c>
       <c r="E24">
-        <v>11.22874927401768</v>
+        <v>11.23001958044522</v>
       </c>
       <c r="F24">
-        <v>35.52472384639218</v>
+        <v>35.49909484386657</v>
       </c>
       <c r="G24">
-        <v>27.07808456162337</v>
+        <v>27.12104547495463</v>
       </c>
       <c r="H24">
-        <v>26.46523393312446</v>
+        <v>26.31817022513291</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>26.44584049859331</v>
       </c>
       <c r="J24">
-        <v>76.20632515384909</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>76.20212086350347</v>
       </c>
       <c r="L24">
-        <v>46.42072771482781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>46.41783101156347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.249334476815556</v>
+        <v>3.251472822912194</v>
       </c>
       <c r="D25">
-        <v>2.929940462609608</v>
+        <v>2.929254735346207</v>
       </c>
       <c r="E25">
-        <v>9.963964737115999</v>
+        <v>9.964805298522194</v>
       </c>
       <c r="F25">
-        <v>30.62865277117536</v>
+        <v>30.60701002178022</v>
       </c>
       <c r="G25">
-        <v>23.16894807978944</v>
+        <v>23.2060072966154</v>
       </c>
       <c r="H25">
-        <v>22.75447429924331</v>
+        <v>22.55088816132551</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.7380848134328</v>
       </c>
       <c r="J25">
-        <v>68.38731685672859</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>68.38445761579281</v>
       </c>
       <c r="L25">
-        <v>41.58246952559301</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>41.5805088943175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.923087112071117</v>
+        <v>7.379010953866581</v>
       </c>
       <c r="D2">
-        <v>2.48473719348135</v>
+        <v>5.463435000313036</v>
       </c>
       <c r="E2">
-        <v>9.004730863254787</v>
+        <v>6.811902982474482</v>
       </c>
       <c r="F2">
-        <v>27.08741430327926</v>
+        <v>36.5985445159973</v>
       </c>
       <c r="G2">
-        <v>20.39201584336018</v>
+        <v>2.016580286206089</v>
       </c>
       <c r="H2">
-        <v>19.88351799363845</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20.05061384723341</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.626969248280912</v>
       </c>
       <c r="K2">
-        <v>62.27456486548989</v>
+        <v>59.56092827100083</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>37.82020957314312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.0183838911601</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.59147687766498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.694261983413312</v>
+        <v>6.808296418648957</v>
       </c>
       <c r="D3">
-        <v>2.188739632056343</v>
+        <v>5.088179468563553</v>
       </c>
       <c r="E3">
-        <v>8.329736393078555</v>
+        <v>6.700660250985763</v>
       </c>
       <c r="F3">
-        <v>24.72754138145968</v>
+        <v>34.70447943301696</v>
       </c>
       <c r="G3">
-        <v>18.50512148738375</v>
+        <v>2.03923030073871</v>
       </c>
       <c r="H3">
-        <v>18.12339997497072</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>18.23392886556663</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.78140896374438</v>
       </c>
       <c r="K3">
-        <v>57.88553085179322</v>
+        <v>55.21926469539279</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.12884014327733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>35.40763892917182</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.08615517241998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.549777959940237</v>
+        <v>6.44626694339382</v>
       </c>
       <c r="D4">
-        <v>2.008005564426023</v>
+        <v>4.857464990339571</v>
       </c>
       <c r="E4">
-        <v>7.969507060980558</v>
+        <v>6.634342780733346</v>
       </c>
       <c r="F4">
-        <v>23.28640080654499</v>
+        <v>33.66101169106643</v>
       </c>
       <c r="G4">
-        <v>17.35219171457114</v>
+        <v>2.053105782618932</v>
       </c>
       <c r="H4">
-        <v>17.06333424779986</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.11626300753545</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.876990473174315</v>
       </c>
       <c r="K4">
-        <v>55.06074647517232</v>
+        <v>52.4407769759384</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.4007298944441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.78430544271538</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.25716939873055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.489783359007773</v>
+        <v>6.295567566349207</v>
       </c>
       <c r="D5">
-        <v>1.934409790590336</v>
+        <v>4.76310606236095</v>
       </c>
       <c r="E5">
-        <v>7.882224020904419</v>
+        <v>6.60775327434574</v>
       </c>
       <c r="F5">
-        <v>22.70077801019678</v>
+        <v>33.26408645292693</v>
       </c>
       <c r="G5">
-        <v>16.88344760186516</v>
+        <v>2.058769895782718</v>
       </c>
       <c r="H5">
-        <v>16.73365614963065</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.65984389321321</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.916203114784546</v>
       </c>
       <c r="K5">
-        <v>53.87599602330354</v>
+        <v>51.27880297568376</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>32.67684803997476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33.10842116404413</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.94191410656948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.479750803756374</v>
+        <v>6.270346010449146</v>
       </c>
       <c r="D6">
-        <v>1.922187291573987</v>
+        <v>4.747410510788736</v>
       </c>
       <c r="E6">
-        <v>7.867874312027369</v>
+        <v>6.603362772945158</v>
       </c>
       <c r="F6">
-        <v>22.60363287037257</v>
+        <v>33.19983739862501</v>
       </c>
       <c r="G6">
-        <v>16.80567405392289</v>
+        <v>2.059711469867537</v>
       </c>
       <c r="H6">
-        <v>16.68155416493551</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.58399045599133</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.922732148799383</v>
       </c>
       <c r="K6">
-        <v>53.67721190157388</v>
+        <v>51.08402672310213</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.55544278269352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32.99531227670644</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.89088990314315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.548973512266735</v>
+        <v>6.444247695460985</v>
       </c>
       <c r="D7">
-        <v>2.007013046718756</v>
+        <v>4.856194124057342</v>
       </c>
       <c r="E7">
-        <v>7.968320292497569</v>
+        <v>6.633982497707265</v>
       </c>
       <c r="F7">
-        <v>23.27849637024726</v>
+        <v>33.65554626808164</v>
       </c>
       <c r="G7">
-        <v>17.34586591656966</v>
+        <v>2.053182110057158</v>
       </c>
       <c r="H7">
-        <v>17.0575564241474</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.11011183622839</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.877518156565655</v>
       </c>
       <c r="K7">
-        <v>55.04490587196062</v>
+        <v>52.42522818987047</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33.39104779267882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.7752489243747</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.2528281699515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.844941771714646</v>
+        <v>7.184474264817122</v>
       </c>
       <c r="D8">
-        <v>2.382338419370963</v>
+        <v>5.333933783352053</v>
       </c>
       <c r="E8">
-        <v>8.774685728743005</v>
+        <v>6.773091331089841</v>
       </c>
       <c r="F8">
-        <v>26.27180798674258</v>
+        <v>35.91955819659148</v>
       </c>
       <c r="G8">
-        <v>19.73995894261799</v>
+        <v>2.024408244150396</v>
       </c>
       <c r="H8">
-        <v>19.27219759126772</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>19.42436264892763</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.680110024649554</v>
       </c>
       <c r="K8">
-        <v>60.78757091577208</v>
+        <v>58.08640906578147</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.90749682878381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.09217561593363</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.05177809830002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.399783343692481</v>
+        <v>8.557891529694906</v>
       </c>
       <c r="D9">
-        <v>3.137186163544656</v>
+        <v>6.283866178764991</v>
       </c>
       <c r="E9">
-        <v>10.39436363981365</v>
+        <v>7.06545893703593</v>
       </c>
       <c r="F9">
-        <v>32.23755683032658</v>
+        <v>41.56687838878722</v>
       </c>
       <c r="G9">
-        <v>24.51023414918029</v>
+        <v>1.966730058550783</v>
       </c>
       <c r="H9">
-        <v>23.79991237698269</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>23.97675264160609</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.295132992388973</v>
       </c>
       <c r="K9">
-        <v>71.0685924416016</v>
+        <v>68.37045853805147</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.237886778765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43.65773637172992</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.91009876523553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.802210872158308</v>
+        <v>9.544807654990942</v>
       </c>
       <c r="D10">
-        <v>3.722138141699676</v>
+        <v>7.019489751815779</v>
       </c>
       <c r="E10">
-        <v>11.54537716389084</v>
+        <v>7.29969411018305</v>
       </c>
       <c r="F10">
-        <v>36.75874437136086</v>
+        <v>46.96090270096609</v>
       </c>
       <c r="G10">
-        <v>28.13025813772027</v>
+        <v>1.921732740550887</v>
       </c>
       <c r="H10">
-        <v>27.29685300414074</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>27.39701586262034</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.007048714928651</v>
       </c>
       <c r="K10">
-        <v>78.10871920426359</v>
+        <v>75.56684460319136</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>47.60249897116648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>48.26572286902897</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>37.46036705645265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.987237612925999</v>
+        <v>9.997402165567477</v>
       </c>
       <c r="D11">
-        <v>4.000568151924218</v>
+        <v>7.372576233050284</v>
       </c>
       <c r="E11">
-        <v>12.06694624858937</v>
+        <v>7.413139068709334</v>
       </c>
       <c r="F11">
-        <v>38.87457974671531</v>
+        <v>49.62705304832692</v>
       </c>
       <c r="G11">
-        <v>29.82671065483012</v>
+        <v>1.900071403128352</v>
       </c>
       <c r="H11">
-        <v>28.9473640505139</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>28.99233734239232</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.872924513944931</v>
       </c>
       <c r="K11">
-        <v>81.22434907961191</v>
+        <v>78.8080075001027</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>49.54297606209813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>50.34162489906767</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>39.68365728444844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.057928089154542</v>
+        <v>10.17035368578644</v>
       </c>
       <c r="D12">
-        <v>4.108420501268353</v>
+        <v>7.510233005368075</v>
       </c>
       <c r="E12">
-        <v>12.26489253749262</v>
+        <v>7.457434807383781</v>
       </c>
       <c r="F12">
-        <v>39.68779120416489</v>
+        <v>50.67599207833513</v>
       </c>
       <c r="G12">
-        <v>30.47918740922249</v>
+        <v>1.891619921793796</v>
       </c>
       <c r="H12">
-        <v>29.58376391618566</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>29.60481217948579</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.821479864859378</v>
       </c>
       <c r="K12">
-        <v>82.39429895797272</v>
+        <v>80.03622835061257</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>50.27318571782947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>51.1283730948767</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>40.55483836616991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.042669351071136</v>
+        <v>10.13301492034064</v>
       </c>
       <c r="D13">
-        <v>4.08507285218321</v>
+        <v>7.480383954848664</v>
       </c>
       <c r="E13">
-        <v>12.2222277465665</v>
+        <v>7.4478283320666</v>
       </c>
       <c r="F13">
-        <v>39.51205065551746</v>
+        <v>50.44815223762371</v>
       </c>
       <c r="G13">
-        <v>30.33816067581783</v>
+        <v>1.893452733525284</v>
       </c>
       <c r="H13">
-        <v>29.44614267149191</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>29.47248110928981</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.832592533112446</v>
       </c>
       <c r="K13">
-        <v>82.14271911880292</v>
+        <v>79.77155932484933</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>50.11609185876451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>50.95883225062607</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>40.36576224467165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.99303853586964</v>
+        <v>10.01159224060862</v>
       </c>
       <c r="D14">
-        <v>4.009388455583828</v>
+        <v>7.383812825771846</v>
       </c>
       <c r="E14">
-        <v>12.083217648267</v>
+        <v>7.4167540016328</v>
       </c>
       <c r="F14">
-        <v>38.94121887805915</v>
+        <v>49.71249733569595</v>
       </c>
       <c r="G14">
-        <v>29.88016854867474</v>
+        <v>1.899381634067094</v>
       </c>
       <c r="H14">
-        <v>28.99947346896041</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>29.04254009046126</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.868706680594221</v>
       </c>
       <c r="K14">
-        <v>81.32078191566663</v>
+        <v>78.90899740392612</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>49.60313074165285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>50.40631284932181</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>39.75469050079678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.962731375169812</v>
+        <v>9.937458672889232</v>
       </c>
       <c r="D15">
-        <v>3.963366496126138</v>
+        <v>7.325222142100117</v>
       </c>
       <c r="E15">
-        <v>11.99815249184599</v>
+        <v>7.397906915120467</v>
       </c>
       <c r="F15">
-        <v>38.5932517742224</v>
+        <v>49.26733567401898</v>
       </c>
       <c r="G15">
-        <v>29.60104832790603</v>
+        <v>1.902978044021656</v>
       </c>
       <c r="H15">
-        <v>28.72745745670765</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>28.78037143975002</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.890735076818085</v>
       </c>
       <c r="K15">
-        <v>80.8161255705686</v>
+        <v>78.38096545188463</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>49.28839092598011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>50.06809193457883</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>39.38447099362168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.790185681033144</v>
+        <v>9.515383229300078</v>
       </c>
       <c r="D16">
-        <v>3.704241365629458</v>
+        <v>6.996885739941774</v>
       </c>
       <c r="E16">
-        <v>11.51130845067418</v>
+        <v>7.29244529300594</v>
       </c>
       <c r="F16">
-        <v>36.62193348519958</v>
+        <v>46.79160546256333</v>
       </c>
       <c r="G16">
-        <v>28.0206208712102</v>
+        <v>1.923118400833036</v>
       </c>
       <c r="H16">
-        <v>27.19040915097095</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>27.29376360169519</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.015735259200023</v>
       </c>
       <c r="K16">
-        <v>77.90356626625255</v>
+        <v>75.35480191851468</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>47.47492746342319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48.12992593054082</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>37.31870543615045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.685053643822001</v>
+        <v>9.25801465570388</v>
       </c>
       <c r="D17">
-        <v>3.548841121823404</v>
+        <v>6.80096403586722</v>
       </c>
       <c r="E17">
-        <v>11.21258410335276</v>
+        <v>7.229717728877007</v>
       </c>
       <c r="F17">
-        <v>35.42989745759495</v>
+        <v>45.3323835093601</v>
       </c>
       <c r="G17">
-        <v>27.06562097344655</v>
+        <v>1.93512194756644</v>
       </c>
       <c r="H17">
-        <v>26.26449880960305</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>26.39355428895724</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.091496826579987</v>
       </c>
       <c r="K17">
-        <v>76.09621397783557</v>
+        <v>73.49338036531404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>46.35208545282046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>46.93789042548832</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>36.0949528495553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.624744066807517</v>
+        <v>9.11024651380084</v>
       </c>
       <c r="D18">
-        <v>3.460572778735453</v>
+        <v>6.68991149393799</v>
       </c>
       <c r="E18">
-        <v>11.04052052287041</v>
+        <v>7.194260130608236</v>
       </c>
       <c r="F18">
-        <v>34.74957227284708</v>
+        <v>44.512374548598</v>
       </c>
       <c r="G18">
-        <v>26.52078790824953</v>
+        <v>1.941919809183993</v>
       </c>
       <c r="H18">
-        <v>25.7373491787135</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>25.87928812700392</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.13479902243886</v>
       </c>
       <c r="K18">
-        <v>75.04829849446337</v>
+        <v>72.4192596195994</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>45.70188547927176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>46.25008228822643</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>35.40494815567924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.604342647442482</v>
+        <v>9.060234145435007</v>
       </c>
       <c r="D19">
-        <v>3.430861022843643</v>
+        <v>6.652560160634298</v>
       </c>
       <c r="E19">
-        <v>10.98220153102538</v>
+        <v>7.182353170815833</v>
       </c>
       <c r="F19">
-        <v>34.5200469957617</v>
+        <v>44.23783698632987</v>
       </c>
       <c r="G19">
-        <v>26.33700708973851</v>
+        <v>1.944205116764621</v>
       </c>
       <c r="H19">
-        <v>25.55972333344536</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>25.70569968321593</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.14941898880673</v>
       </c>
       <c r="K19">
-        <v>74.69198385106679</v>
+        <v>72.05484468906953</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>45.48093873054331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>46.01673852548465</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>35.17353204490939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.696226410672105</v>
+        <v>9.285378364908256</v>
       </c>
       <c r="D20">
-        <v>3.565264355418914</v>
+        <v>6.821643023098289</v>
       </c>
       <c r="E20">
-        <v>11.24440454298555</v>
+        <v>7.236328779914627</v>
       </c>
       <c r="F20">
-        <v>35.55622103506852</v>
+        <v>45.48567092545221</v>
       </c>
       <c r="G20">
-        <v>27.16680258340165</v>
+        <v>1.933855618388018</v>
       </c>
       <c r="H20">
-        <v>26.3624862458882</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>26.48900276947031</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.083461588813115</v>
       </c>
       <c r="K20">
-        <v>76.28945936466287</v>
+        <v>73.69185813040254</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>46.472054243122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>47.06498847694637</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>36.22374547178999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.007596146883671</v>
+        <v>10.04720427008509</v>
       </c>
       <c r="D21">
-        <v>4.031547168810853</v>
+        <v>7.412057892722482</v>
       </c>
       <c r="E21">
-        <v>12.12402946277206</v>
+        <v>7.425841507616895</v>
       </c>
       <c r="F21">
-        <v>39.10852724365847</v>
+        <v>49.92742006356828</v>
       </c>
       <c r="G21">
-        <v>30.01439087978878</v>
+        <v>1.897647694454797</v>
       </c>
       <c r="H21">
-        <v>29.13033504129766</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>29.16857172186639</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.858118835521663</v>
       </c>
       <c r="K21">
-        <v>81.56244837111569</v>
+        <v>79.1622746680989</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>49.75390757521223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>50.56854837511114</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>39.93330926203345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.214971246578926</v>
+        <v>10.55503955091539</v>
       </c>
       <c r="D22">
-        <v>4.35082163785894</v>
+        <v>7.82200429879762</v>
       </c>
       <c r="E22">
-        <v>12.70198636653829</v>
+        <v>7.557776555021762</v>
       </c>
       <c r="F22">
-        <v>41.50255499844601</v>
+        <v>53.06694590053267</v>
       </c>
       <c r="G22">
-        <v>31.9362135501527</v>
+        <v>1.872471901787863</v>
       </c>
       <c r="H22">
-        <v>31.0076952453124</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>30.97046225360138</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.706882156837392</v>
       </c>
       <c r="K22">
-        <v>84.9528714824333</v>
+        <v>82.74687559913741</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>51.87319388524967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>52.86490284359656</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>42.5343430998168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.103796638921414</v>
+        <v>10.28262725834963</v>
       </c>
       <c r="D23">
-        <v>4.17882555065485</v>
+        <v>7.60042145722631</v>
       </c>
       <c r="E23">
-        <v>12.39293718362078</v>
+        <v>7.48646322232462</v>
       </c>
       <c r="F23">
-        <v>40.21673034864632</v>
+        <v>51.3656293142225</v>
       </c>
       <c r="G23">
-        <v>30.90372028501316</v>
+        <v>1.886081515919289</v>
       </c>
       <c r="H23">
-        <v>29.99826799597761</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>30.00300687523005</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.788049390370289</v>
       </c>
       <c r="K23">
-        <v>83.14738404811925</v>
+        <v>80.83040612423686</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>50.74367867655489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>51.63712058727234</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>41.12665063361752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.691174815461166</v>
+        <v>9.273006692417866</v>
       </c>
       <c r="D24">
-        <v>3.557836114350362</v>
+        <v>6.812289204593812</v>
       </c>
       <c r="E24">
-        <v>11.23001958044522</v>
+        <v>7.233338062156173</v>
       </c>
       <c r="F24">
-        <v>35.49909484386657</v>
+        <v>45.416311365928</v>
       </c>
       <c r="G24">
-        <v>27.12104547495463</v>
+        <v>1.934428441674998</v>
       </c>
       <c r="H24">
-        <v>26.31817022513291</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>26.44584049859331</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.087095096156287</v>
       </c>
       <c r="K24">
-        <v>76.20212086350347</v>
+        <v>73.60213906836206</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>46.41783101156347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>47.00753545592002</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>36.16547662850761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.251472822912194</v>
+        <v>8.192474719375879</v>
       </c>
       <c r="D25">
-        <v>2.929254735346207</v>
+        <v>6.022932960958509</v>
       </c>
       <c r="E25">
-        <v>9.964805298522194</v>
+        <v>6.983635607638536</v>
       </c>
       <c r="F25">
-        <v>30.60701002178022</v>
+        <v>39.7918718574196</v>
       </c>
       <c r="G25">
-        <v>23.2060072966154</v>
+        <v>1.982629494884159</v>
       </c>
       <c r="H25">
-        <v>22.55088816132551</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>22.7380848134328</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.399650924228558</v>
       </c>
       <c r="K25">
-        <v>68.38445761579281</v>
+        <v>65.66360269636073</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.5805088943175</v>
+        <v>41.92482246195009</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.33605044094026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.379010953866581</v>
+        <v>2.965509449142067</v>
       </c>
       <c r="D2">
-        <v>5.463435000313036</v>
+        <v>3.401314792486033</v>
       </c>
       <c r="E2">
-        <v>6.811902982474482</v>
+        <v>10.45692872779263</v>
       </c>
       <c r="F2">
-        <v>36.5985445159973</v>
+        <v>14.29056281877788</v>
       </c>
       <c r="G2">
-        <v>2.016580286206089</v>
+        <v>2.032045394977492</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10.97643925812073</v>
       </c>
       <c r="J2">
-        <v>4.626969248280912</v>
+        <v>8.008055864307432</v>
       </c>
       <c r="K2">
-        <v>59.56092827100083</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.506949663276334</v>
       </c>
       <c r="M2">
-        <v>38.0183838911601</v>
+        <v>98.90382349256348</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.59147687766498</v>
+        <v>12.53824340469728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.808296418648957</v>
+        <v>3.155769952525155</v>
       </c>
       <c r="D3">
-        <v>5.088179468563553</v>
+        <v>3.493217419662671</v>
       </c>
       <c r="E3">
-        <v>6.700660250985763</v>
+        <v>9.57529768188593</v>
       </c>
       <c r="F3">
-        <v>34.70447943301696</v>
+        <v>14.2460398946771</v>
       </c>
       <c r="G3">
-        <v>2.03923030073871</v>
+        <v>2.046260405931883</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.12653449653957</v>
       </c>
       <c r="J3">
-        <v>4.78140896374438</v>
+        <v>7.354669086816074</v>
       </c>
       <c r="K3">
-        <v>55.21926469539279</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.819950236848548</v>
       </c>
       <c r="M3">
-        <v>35.40763892917182</v>
+        <v>91.61948780470806</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.08615517241998</v>
+        <v>12.44611192008789</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.44626694339382</v>
+        <v>3.288569250661006</v>
       </c>
       <c r="D4">
-        <v>4.857464990339571</v>
+        <v>3.553723368080593</v>
       </c>
       <c r="E4">
-        <v>6.634342780733346</v>
+        <v>9.034592660800298</v>
       </c>
       <c r="F4">
-        <v>33.66101169106643</v>
+        <v>14.40443646106015</v>
       </c>
       <c r="G4">
-        <v>2.053105782618932</v>
+        <v>2.054897404982735</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.33711253411266</v>
       </c>
       <c r="J4">
-        <v>4.876990473174315</v>
+        <v>6.948534617900312</v>
       </c>
       <c r="K4">
-        <v>52.4407769759384</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.391253189319502</v>
       </c>
       <c r="M4">
-        <v>33.78430544271538</v>
+        <v>87.00699623908407</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.25716939873055</v>
+        <v>12.50220846709268</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.295567566349207</v>
+        <v>3.345704564278356</v>
       </c>
       <c r="D5">
-        <v>4.76310606236095</v>
+        <v>3.579266993841618</v>
       </c>
       <c r="E5">
-        <v>6.60775327434574</v>
+        <v>8.813539857389411</v>
       </c>
       <c r="F5">
-        <v>33.26408645292693</v>
+        <v>14.50794797687088</v>
       </c>
       <c r="G5">
-        <v>2.058769895782718</v>
+        <v>2.058408495267953</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.44728058842488</v>
       </c>
       <c r="J5">
-        <v>4.916203114784546</v>
+        <v>6.78114750075447</v>
       </c>
       <c r="K5">
-        <v>51.27880297568376</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.214189435862292</v>
       </c>
       <c r="M5">
-        <v>33.10842116404413</v>
+        <v>85.08752416218738</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.94191410656948</v>
+        <v>12.54923910028548</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.270346010449146</v>
+        <v>3.355351478054649</v>
       </c>
       <c r="D6">
-        <v>4.747410510788736</v>
+        <v>3.58355884683614</v>
       </c>
       <c r="E6">
-        <v>6.603362772945158</v>
+        <v>8.776770067116409</v>
       </c>
       <c r="F6">
-        <v>33.19983739862501</v>
+        <v>14.52727118337292</v>
       </c>
       <c r="G6">
-        <v>2.059711469867537</v>
+        <v>2.058991356784916</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.46689976275409</v>
       </c>
       <c r="J6">
-        <v>4.922732148799383</v>
+        <v>6.753222954161518</v>
       </c>
       <c r="K6">
-        <v>51.08402672310213</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.184628998000034</v>
       </c>
       <c r="M6">
-        <v>32.99531227670644</v>
+        <v>84.76627195406401</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.89088990314315</v>
+        <v>12.55839185916084</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.444247695460985</v>
+        <v>3.289328640789903</v>
       </c>
       <c r="D7">
-        <v>4.856194124057342</v>
+        <v>3.554064417546702</v>
       </c>
       <c r="E7">
-        <v>6.633982497707265</v>
+        <v>9.03161532955496</v>
       </c>
       <c r="F7">
-        <v>33.65554626808164</v>
+        <v>14.4056846381982</v>
       </c>
       <c r="G7">
-        <v>2.053182110057158</v>
+        <v>2.054944774598236</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.3385063507837</v>
       </c>
       <c r="J7">
-        <v>4.877518156565655</v>
+        <v>6.946285555025825</v>
       </c>
       <c r="K7">
-        <v>52.42522818987047</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.388875574849263</v>
       </c>
       <c r="M7">
-        <v>33.7752489243747</v>
+        <v>86.98127638039952</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.2528281699515</v>
+        <v>12.50275018168036</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.184474264817122</v>
+        <v>3.027068649534572</v>
       </c>
       <c r="D8">
-        <v>5.333933783352053</v>
+        <v>3.432057409653005</v>
       </c>
       <c r="E8">
-        <v>6.773091331089841</v>
+        <v>10.15221499831853</v>
       </c>
       <c r="F8">
-        <v>35.91955819659148</v>
+        <v>14.23194295145677</v>
       </c>
       <c r="G8">
-        <v>2.024408244150396</v>
+        <v>2.036975299603014</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.00015949676536</v>
       </c>
       <c r="J8">
-        <v>4.680110024649554</v>
+        <v>7.783365793433283</v>
       </c>
       <c r="K8">
-        <v>58.08640906578147</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.271070614114908</v>
       </c>
       <c r="M8">
-        <v>37.09217561593363</v>
+        <v>96.41807157777609</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.05177809830002</v>
+        <v>12.48052282055198</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.557891529694906</v>
+        <v>2.980304017366418</v>
       </c>
       <c r="D9">
-        <v>6.283866178764991</v>
+        <v>3.235014953859578</v>
       </c>
       <c r="E9">
-        <v>7.06545893703593</v>
+        <v>12.41032611903902</v>
       </c>
       <c r="F9">
-        <v>41.56687838878722</v>
+        <v>16.38060774011253</v>
       </c>
       <c r="G9">
-        <v>1.966730058550783</v>
+        <v>2.000141446011776</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.52922768056121</v>
       </c>
       <c r="J9">
-        <v>4.295132992388973</v>
+        <v>9.42449923245977</v>
       </c>
       <c r="K9">
-        <v>68.37045853805147</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.985289938488865</v>
       </c>
       <c r="M9">
-        <v>43.65773637172992</v>
+        <v>114.0980544761871</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.91009876523553</v>
+        <v>14.35783521879393</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.544807654990942</v>
+        <v>3.6237626677791</v>
       </c>
       <c r="D10">
-        <v>7.019489751815779</v>
+        <v>3.54357771323676</v>
       </c>
       <c r="E10">
-        <v>7.29969411018305</v>
+        <v>14.22821850453672</v>
       </c>
       <c r="F10">
-        <v>46.96090270096609</v>
+        <v>20.00164191488177</v>
       </c>
       <c r="G10">
-        <v>1.921732740550887</v>
+        <v>1.970275780414532</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.38940698752593</v>
       </c>
       <c r="J10">
-        <v>4.007048714928651</v>
+        <v>10.71230442371046</v>
       </c>
       <c r="K10">
-        <v>75.56684460319136</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.31723783864413</v>
       </c>
       <c r="M10">
-        <v>48.26572286902897</v>
+        <v>127.1848394106223</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>37.46036705645265</v>
+        <v>17.25064551001396</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.997402165567477</v>
+        <v>3.987321268876874</v>
       </c>
       <c r="D11">
-        <v>7.372576233050284</v>
+        <v>3.769877454136464</v>
       </c>
       <c r="E11">
-        <v>7.413139068709334</v>
+        <v>15.14165433734863</v>
       </c>
       <c r="F11">
-        <v>49.62705304832692</v>
+        <v>22.00025091172375</v>
       </c>
       <c r="G11">
-        <v>1.900071403128352</v>
+        <v>1.955329171598049</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.90863608532404</v>
       </c>
       <c r="J11">
-        <v>3.872924513944931</v>
+        <v>11.35028564506492</v>
       </c>
       <c r="K11">
-        <v>78.8080075001027</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.97321676520656</v>
       </c>
       <c r="M11">
-        <v>50.34162489906767</v>
+        <v>133.4097371077475</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>39.68365728444844</v>
+        <v>18.76966082505126</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.17035368578644</v>
+        <v>4.139155255628137</v>
       </c>
       <c r="D12">
-        <v>7.510233005368075</v>
+        <v>3.861500649127456</v>
       </c>
       <c r="E12">
-        <v>7.457434807383781</v>
+        <v>15.50830116957965</v>
       </c>
       <c r="F12">
-        <v>50.67599207833513</v>
+        <v>22.82389223927739</v>
       </c>
       <c r="G12">
-        <v>1.891619921793796</v>
+        <v>1.949356103797873</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.52748063701475</v>
       </c>
       <c r="J12">
-        <v>3.821479864859378</v>
+        <v>11.60482474525943</v>
       </c>
       <c r="K12">
-        <v>80.03622835061257</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.23427991469444</v>
       </c>
       <c r="M12">
-        <v>51.1283730948767</v>
+        <v>135.845822417149</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>40.55483836616991</v>
+        <v>19.38608141140921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.13301492034064</v>
+        <v>4.105727145498576</v>
       </c>
       <c r="D13">
-        <v>7.480383954848664</v>
+        <v>3.841449086689083</v>
       </c>
       <c r="E13">
-        <v>7.4478283320666</v>
+        <v>15.42821450798988</v>
       </c>
       <c r="F13">
-        <v>50.44815223762371</v>
+        <v>22.6431235236564</v>
       </c>
       <c r="G13">
-        <v>1.893452733525284</v>
+        <v>1.950659229572643</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.39196224497933</v>
       </c>
       <c r="J13">
-        <v>3.832592533112446</v>
+        <v>11.54929851229976</v>
       </c>
       <c r="K13">
-        <v>79.77155932484933</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.17736123403496</v>
       </c>
       <c r="M13">
-        <v>50.95883225062607</v>
+        <v>135.3167051714644</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>40.36576224467165</v>
+        <v>19.25119740697079</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.01159224060862</v>
+        <v>3.999495001441172</v>
       </c>
       <c r="D14">
-        <v>7.383812825771846</v>
+        <v>3.777277424507693</v>
       </c>
       <c r="E14">
-        <v>7.4167540016328</v>
+        <v>15.17133351385192</v>
       </c>
       <c r="F14">
-        <v>49.71249733569595</v>
+        <v>22.0665313375812</v>
       </c>
       <c r="G14">
-        <v>1.899381634067094</v>
+        <v>1.954845007399828</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.95857150803765</v>
       </c>
       <c r="J14">
-        <v>3.868706680594221</v>
+        <v>11.37092190477405</v>
       </c>
       <c r="K14">
-        <v>78.90899740392612</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.99439548960803</v>
       </c>
       <c r="M14">
-        <v>50.40631284932181</v>
+        <v>133.6082439419784</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.75469050079678</v>
+        <v>18.81944651612785</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.937458672889232</v>
+        <v>3.936438282179843</v>
       </c>
       <c r="D15">
-        <v>7.325222142100117</v>
+        <v>3.738837969420125</v>
       </c>
       <c r="E15">
-        <v>7.397906915120467</v>
+        <v>15.01703473467216</v>
       </c>
       <c r="F15">
-        <v>49.26733567401898</v>
+        <v>21.72276061094341</v>
       </c>
       <c r="G15">
-        <v>1.902978044021656</v>
+        <v>1.957363294664181</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.69929988430312</v>
       </c>
       <c r="J15">
-        <v>3.890735076818085</v>
+        <v>11.263573971142</v>
       </c>
       <c r="K15">
-        <v>78.38096545188463</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.88419917453875</v>
       </c>
       <c r="M15">
-        <v>50.06809193457883</v>
+        <v>132.5736859807668</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>39.38447099362168</v>
+        <v>18.56086099078999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.515383229300078</v>
+        <v>3.601707599273921</v>
       </c>
       <c r="D16">
-        <v>6.996885739941774</v>
+        <v>3.529460786208045</v>
       </c>
       <c r="E16">
-        <v>7.29244529300594</v>
+        <v>14.17085559637837</v>
       </c>
       <c r="F16">
-        <v>46.79160546256333</v>
+        <v>19.87922236185483</v>
       </c>
       <c r="G16">
-        <v>1.923118400833036</v>
+        <v>1.97121677963806</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.2953601744307</v>
       </c>
       <c r="J16">
-        <v>4.015735259200023</v>
+        <v>10.67204906218969</v>
       </c>
       <c r="K16">
-        <v>75.35480191851468</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.27576474447937</v>
       </c>
       <c r="M16">
-        <v>48.12992593054082</v>
+        <v>126.7863306805548</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>37.31870543615045</v>
+        <v>17.15630419500338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.25801465570388</v>
+        <v>3.416561600909339</v>
       </c>
       <c r="D17">
-        <v>6.80096403586722</v>
+        <v>3.408714992439148</v>
       </c>
       <c r="E17">
-        <v>7.229717728877007</v>
+        <v>13.67831383023863</v>
       </c>
       <c r="F17">
-        <v>45.3323835093601</v>
+        <v>18.84644560962856</v>
       </c>
       <c r="G17">
-        <v>1.93512194756644</v>
+        <v>1.979303972785648</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.49617839906748</v>
       </c>
       <c r="J17">
-        <v>4.091496826579987</v>
+        <v>10.32542600976004</v>
       </c>
       <c r="K17">
-        <v>73.49338036531404</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.91823656330511</v>
       </c>
       <c r="M17">
-        <v>46.93789042548832</v>
+        <v>123.3267117781775</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>36.0949528495553</v>
+        <v>16.35288670424329</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.11024651380084</v>
+        <v>3.316404583317933</v>
       </c>
       <c r="D18">
-        <v>6.68991149393799</v>
+        <v>3.34146384770785</v>
       </c>
       <c r="E18">
-        <v>7.194260130608236</v>
+        <v>13.40246987670955</v>
       </c>
       <c r="F18">
-        <v>44.512374548598</v>
+        <v>18.28408640728576</v>
       </c>
       <c r="G18">
-        <v>1.941919809183993</v>
+        <v>1.983837075467152</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.05599718513182</v>
       </c>
       <c r="J18">
-        <v>4.13479902243886</v>
+        <v>10.13051793369006</v>
       </c>
       <c r="K18">
-        <v>72.4192596195994</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.71685918434919</v>
       </c>
       <c r="M18">
-        <v>46.25008228822643</v>
+        <v>121.3591249510293</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.40494815567924</v>
+        <v>15.90888070247233</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.060234145435007</v>
+        <v>3.283500138014356</v>
       </c>
       <c r="D19">
-        <v>6.652560160634298</v>
+        <v>3.319023702686682</v>
       </c>
       <c r="E19">
-        <v>7.182353170815833</v>
+        <v>13.31017860241863</v>
       </c>
       <c r="F19">
-        <v>44.23783698632987</v>
+        <v>18.09880135751859</v>
       </c>
       <c r="G19">
-        <v>1.944205116764621</v>
+        <v>1.985354073377972</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.91006216068107</v>
       </c>
       <c r="J19">
-        <v>4.14941898880673</v>
+        <v>10.0651762086548</v>
       </c>
       <c r="K19">
-        <v>72.05484468906953</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.64929319435501</v>
       </c>
       <c r="M19">
-        <v>46.01673852548465</v>
+        <v>120.6959224193997</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.17353204490939</v>
+        <v>15.76141106446049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.285378364908256</v>
+        <v>3.435594765867135</v>
       </c>
       <c r="D20">
-        <v>6.821643023098289</v>
+        <v>3.421329069062631</v>
       </c>
       <c r="E20">
-        <v>7.236328779914627</v>
+        <v>13.72993043629251</v>
       </c>
       <c r="F20">
-        <v>45.48567092545221</v>
+        <v>18.95302811548389</v>
       </c>
       <c r="G20">
-        <v>1.933855618388018</v>
+        <v>1.978455962724129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.57917402150687</v>
       </c>
       <c r="J20">
-        <v>4.083461588813115</v>
+        <v>10.36183412167708</v>
       </c>
       <c r="K20">
-        <v>73.69185813040254</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.95582591453386</v>
       </c>
       <c r="M20">
-        <v>47.06498847694637</v>
+        <v>123.6924761330091</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>36.22374547178999</v>
+        <v>16.43647687800905</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.04720427008509</v>
+        <v>4.030266396720286</v>
       </c>
       <c r="D21">
-        <v>7.412057892722482</v>
+        <v>3.795938699743252</v>
       </c>
       <c r="E21">
-        <v>7.425841507616895</v>
+        <v>15.24612618798687</v>
       </c>
       <c r="F21">
-        <v>49.92742006356828</v>
+        <v>22.23387946536344</v>
       </c>
       <c r="G21">
-        <v>1.897647694454797</v>
+        <v>1.95362538882369</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.08454148852711</v>
       </c>
       <c r="J21">
-        <v>3.858118835521663</v>
+        <v>11.42290093863031</v>
       </c>
       <c r="K21">
-        <v>79.1622746680989</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.04773021569035</v>
       </c>
       <c r="M21">
-        <v>50.56854837511114</v>
+        <v>134.1074595704451</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>39.93330926203345</v>
+        <v>18.94500222774028</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.55503955091539</v>
+        <v>4.506286152723899</v>
       </c>
       <c r="D22">
-        <v>7.82200429879762</v>
+        <v>4.077998663735684</v>
       </c>
       <c r="E22">
-        <v>7.557776555021762</v>
+        <v>16.36762276413783</v>
       </c>
       <c r="F22">
-        <v>53.06694590053267</v>
+        <v>24.78801060330606</v>
       </c>
       <c r="G22">
-        <v>1.872471901787863</v>
+        <v>1.935438878287636</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.99061568391795</v>
       </c>
       <c r="J22">
-        <v>3.706882156837392</v>
+        <v>12.19814216912396</v>
       </c>
       <c r="K22">
-        <v>82.74687559913741</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.84144999831434</v>
       </c>
       <c r="M22">
-        <v>52.86490284359656</v>
+        <v>141.4199297948182</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>42.5343430998168</v>
+        <v>20.8389661393676</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.28262725834963</v>
+        <v>4.241913367056731</v>
       </c>
       <c r="D23">
-        <v>7.60042145722631</v>
+        <v>3.922751544978699</v>
       </c>
       <c r="E23">
-        <v>7.48646322232462</v>
+        <v>15.75241231914464</v>
       </c>
       <c r="F23">
-        <v>51.3656293142225</v>
+        <v>23.37756522183388</v>
       </c>
       <c r="G23">
-        <v>1.886081515919289</v>
+        <v>1.945389967503724</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.94158402459837</v>
       </c>
       <c r="J23">
-        <v>3.788049390370289</v>
+        <v>11.77382702617255</v>
       </c>
       <c r="K23">
-        <v>80.83040612423686</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.4074169398714</v>
       </c>
       <c r="M23">
-        <v>51.63712058727234</v>
+        <v>137.4483893404474</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>41.12665063361752</v>
+        <v>19.79790247011702</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.273006692417866</v>
+        <v>3.426970542119722</v>
       </c>
       <c r="D24">
-        <v>6.812289204593812</v>
+        <v>3.415619639333511</v>
       </c>
       <c r="E24">
-        <v>7.233338062156173</v>
+        <v>13.7065722829554</v>
       </c>
       <c r="F24">
-        <v>45.416311365928</v>
+        <v>18.90474537466454</v>
       </c>
       <c r="G24">
-        <v>1.934428441674998</v>
+        <v>1.978839702893026</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.54159241331601</v>
       </c>
       <c r="J24">
-        <v>4.087095096156287</v>
+        <v>10.34536074982388</v>
       </c>
       <c r="K24">
-        <v>73.60213906836206</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.93881912703466</v>
       </c>
       <c r="M24">
-        <v>47.00753545592002</v>
+        <v>123.527049965508</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>36.16547662850761</v>
+        <v>16.39863079557786</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.192474719375879</v>
+        <v>2.790537134332555</v>
       </c>
       <c r="D25">
-        <v>6.022932960958509</v>
+        <v>3.282010909891815</v>
       </c>
       <c r="E25">
-        <v>6.983635607638536</v>
+        <v>11.78333714394971</v>
       </c>
       <c r="F25">
-        <v>39.7918718574196</v>
+        <v>15.29834279218465</v>
       </c>
       <c r="G25">
-        <v>1.982629494884159</v>
+        <v>2.010424490001216</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.62305694565334</v>
       </c>
       <c r="J25">
-        <v>4.399650924228558</v>
+        <v>8.97397427313407</v>
       </c>
       <c r="K25">
-        <v>65.66360269636073</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.516658880019627</v>
       </c>
       <c r="M25">
-        <v>41.92482246195009</v>
+        <v>109.3553664248925</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.33605044094026</v>
+        <v>13.42559392547063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.965509449142067</v>
+        <v>7.885082333931324</v>
       </c>
       <c r="D2">
-        <v>3.401314792486033</v>
+        <v>7.007767235305031</v>
       </c>
       <c r="E2">
-        <v>10.45692872779263</v>
+        <v>11.98118886863211</v>
       </c>
       <c r="F2">
-        <v>14.29056281877788</v>
+        <v>34.71544382563388</v>
       </c>
       <c r="G2">
-        <v>2.032045394977492</v>
+        <v>3.678963699735785</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.97643925812073</v>
+        <v>27.29803617798842</v>
       </c>
       <c r="J2">
-        <v>8.008055864307432</v>
+        <v>9.524122541916787</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.506949663276334</v>
+        <v>9.583718933443111</v>
       </c>
       <c r="M2">
-        <v>98.90382349256348</v>
+        <v>60.46959249696625</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.53824340469728</v>
+        <v>27.53840627938159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.155769952525155</v>
+        <v>7.968954733943305</v>
       </c>
       <c r="D3">
-        <v>3.493217419662671</v>
+        <v>7.048721818118671</v>
       </c>
       <c r="E3">
-        <v>9.57529768188593</v>
+        <v>11.98947848744773</v>
       </c>
       <c r="F3">
-        <v>14.2460398946771</v>
+        <v>35.18446773958331</v>
       </c>
       <c r="G3">
-        <v>2.046260405931883</v>
+        <v>3.682851571810195</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.12653449653957</v>
+        <v>27.6381568321496</v>
       </c>
       <c r="J3">
-        <v>7.354669086816074</v>
+        <v>9.55804152759163</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.819950236848548</v>
+        <v>9.593210467867189</v>
       </c>
       <c r="M3">
-        <v>91.61948780470806</v>
+        <v>57.13609579565174</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.44611192008789</v>
+        <v>27.8551623561513</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.288569250661006</v>
+        <v>8.022725822857376</v>
       </c>
       <c r="D4">
-        <v>3.553723368080593</v>
+        <v>7.075166537152021</v>
       </c>
       <c r="E4">
-        <v>9.034592660800298</v>
+        <v>11.99893571001962</v>
       </c>
       <c r="F4">
-        <v>14.40443646106015</v>
+        <v>35.48775941154377</v>
       </c>
       <c r="G4">
-        <v>2.054897404982735</v>
+        <v>3.685340911345668</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.33711253411266</v>
+        <v>27.85784480651443</v>
       </c>
       <c r="J4">
-        <v>6.948534617900312</v>
+        <v>9.581694126228106</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.391253189319502</v>
+        <v>9.601779054518268</v>
       </c>
       <c r="M4">
-        <v>87.00699623908407</v>
+        <v>54.97768428405774</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.50220846709268</v>
+        <v>28.06099155482351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.345704564278356</v>
+        <v>8.045210293847555</v>
       </c>
       <c r="D5">
-        <v>3.579266993841618</v>
+        <v>7.086269990229058</v>
       </c>
       <c r="E5">
-        <v>8.813539857389411</v>
+        <v>12.00387590002504</v>
       </c>
       <c r="F5">
-        <v>14.50794797687088</v>
+        <v>35.61517421618255</v>
       </c>
       <c r="G5">
-        <v>2.058408495267953</v>
+        <v>3.686381175719935</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.44728058842488</v>
+        <v>27.95008264254452</v>
       </c>
       <c r="J5">
-        <v>6.78114750075447</v>
+        <v>9.592036207694063</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.214189435862292</v>
+        <v>9.605954415504565</v>
       </c>
       <c r="M5">
-        <v>85.08752416218738</v>
+        <v>54.07039149097371</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.54923910028548</v>
+        <v>28.14769556508875</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.355351478054649</v>
+        <v>8.04897841288728</v>
       </c>
       <c r="D6">
-        <v>3.58355884683614</v>
+        <v>7.088133476700607</v>
       </c>
       <c r="E6">
-        <v>8.776770067116409</v>
+        <v>12.00476147242302</v>
       </c>
       <c r="F6">
-        <v>14.52727118337292</v>
+        <v>35.63656132505193</v>
       </c>
       <c r="G6">
-        <v>2.058991356784916</v>
+        <v>3.686555475630685</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.46689976275409</v>
+        <v>27.96556209498961</v>
       </c>
       <c r="J6">
-        <v>6.753222954161518</v>
+        <v>9.593795782563545</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.184628998000034</v>
+        <v>9.606688854745856</v>
       </c>
       <c r="M6">
-        <v>84.76627195406401</v>
+        <v>53.91807385305455</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.55839185916084</v>
+        <v>28.16226274744211</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.289328640789903</v>
+        <v>8.023026737949614</v>
       </c>
       <c r="D7">
-        <v>3.554064417546702</v>
+        <v>7.075314957416251</v>
       </c>
       <c r="E7">
-        <v>9.03161532955496</v>
+        <v>11.99899795263378</v>
       </c>
       <c r="F7">
-        <v>14.4056846381982</v>
+        <v>35.48946233742306</v>
       </c>
       <c r="G7">
-        <v>2.054944774598236</v>
+        <v>3.685354835903653</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.3385063507837</v>
+        <v>27.85907779252945</v>
       </c>
       <c r="J7">
-        <v>6.946285555025825</v>
+        <v>9.581830764249045</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.388875574849263</v>
+        <v>9.601832604429914</v>
       </c>
       <c r="M7">
-        <v>86.98127638039952</v>
+        <v>54.96555993642838</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.50275018168036</v>
+        <v>28.06214946063062</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.027068649534572</v>
+        <v>7.913530171277305</v>
       </c>
       <c r="D8">
-        <v>3.432057409653005</v>
+        <v>7.021619186707994</v>
       </c>
       <c r="E8">
-        <v>10.15221499831853</v>
+        <v>11.9831335661963</v>
       </c>
       <c r="F8">
-        <v>14.23194295145677</v>
+        <v>34.87396811441744</v>
       </c>
       <c r="G8">
-        <v>2.036975299603014</v>
+        <v>3.680283122322213</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.00015949676536</v>
+        <v>27.41304757633114</v>
       </c>
       <c r="J8">
-        <v>7.783365793433283</v>
+        <v>9.535226820382176</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.271070614114908</v>
+        <v>9.586419405023936</v>
       </c>
       <c r="M8">
-        <v>96.41807157777609</v>
+        <v>59.34355298329994</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.48052282055198</v>
+        <v>27.64525511255687</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.980304017366418</v>
+        <v>7.716813183728945</v>
       </c>
       <c r="D9">
-        <v>3.235014953859578</v>
+        <v>6.926601802015522</v>
       </c>
       <c r="E9">
-        <v>12.41032611903902</v>
+        <v>11.98720440298697</v>
       </c>
       <c r="F9">
-        <v>16.38060774011253</v>
+        <v>33.7898243639255</v>
       </c>
       <c r="G9">
-        <v>2.000141446011776</v>
+        <v>3.671141257296307</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.52922768056121</v>
+        <v>26.62524251442751</v>
       </c>
       <c r="J9">
-        <v>9.42449923245977</v>
+        <v>9.46659683443106</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.985289938488865</v>
+        <v>9.578194193051543</v>
       </c>
       <c r="M9">
-        <v>114.0980544761871</v>
+        <v>67.03203838171132</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.35783521879393</v>
+        <v>26.91885700645192</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.6237626677791</v>
+        <v>7.583224564207361</v>
       </c>
       <c r="D10">
-        <v>3.54357771323676</v>
+        <v>6.863029011277801</v>
       </c>
       <c r="E10">
-        <v>14.22821850453672</v>
+        <v>12.01235605307332</v>
       </c>
       <c r="F10">
-        <v>20.00164191488177</v>
+        <v>33.07022106769214</v>
       </c>
       <c r="G10">
-        <v>1.970275780414532</v>
+        <v>3.664904677901908</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.38940698752593</v>
+        <v>26.10050100678478</v>
       </c>
       <c r="J10">
-        <v>10.71230442371046</v>
+        <v>9.430528346877622</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.31723783864413</v>
+        <v>9.58591478027879</v>
       </c>
       <c r="M10">
-        <v>127.1848394106223</v>
+        <v>72.1242302232743</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.25064551001396</v>
+        <v>26.442412328337</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.987321268876874</v>
+        <v>7.524822473836869</v>
       </c>
       <c r="D11">
-        <v>3.769877454136464</v>
+        <v>6.835456693024399</v>
       </c>
       <c r="E11">
-        <v>15.14165433734863</v>
+        <v>12.02875802910499</v>
       </c>
       <c r="F11">
-        <v>22.00025091172375</v>
+        <v>32.76005546295936</v>
       </c>
       <c r="G11">
-        <v>1.955329171598049</v>
+        <v>3.662169464860057</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.90863608532404</v>
+        <v>25.87379313402954</v>
       </c>
       <c r="J11">
-        <v>11.35028564506492</v>
+        <v>9.417344678408572</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.97321676520656</v>
+        <v>9.592491171494673</v>
       </c>
       <c r="M11">
-        <v>133.4097371077475</v>
+        <v>74.31896086743527</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.76966082505126</v>
+        <v>26.23849560247476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.139155255628137</v>
+        <v>7.503047769016325</v>
       </c>
       <c r="D12">
-        <v>3.861500649127456</v>
+        <v>6.825209209800573</v>
       </c>
       <c r="E12">
-        <v>15.50830116957965</v>
+        <v>12.03569384477428</v>
       </c>
       <c r="F12">
-        <v>22.82389223927739</v>
+        <v>32.64512221070988</v>
       </c>
       <c r="G12">
-        <v>1.949356103797873</v>
+        <v>3.661148173449325</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.52748063701475</v>
+        <v>25.789696274398</v>
       </c>
       <c r="J12">
-        <v>11.60482474525943</v>
+        <v>9.412825194701806</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.23427991469444</v>
+        <v>9.595428166069544</v>
       </c>
       <c r="M12">
-        <v>135.845822417149</v>
+        <v>75.13250889096126</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.38608141140921</v>
+        <v>26.16315797849509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.105727145498576</v>
+        <v>7.5077221710913</v>
       </c>
       <c r="D13">
-        <v>3.841449086689083</v>
+        <v>6.827407582458908</v>
       </c>
       <c r="E13">
-        <v>15.42821450798988</v>
+        <v>12.0341676807419</v>
       </c>
       <c r="F13">
-        <v>22.6431235236564</v>
+        <v>32.66976226165723</v>
       </c>
       <c r="G13">
-        <v>1.950659229572643</v>
+        <v>3.661367485829329</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.39196224497933</v>
+        <v>25.80772964165696</v>
       </c>
       <c r="J13">
-        <v>11.54929851229976</v>
+        <v>9.413777364366076</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.17736123403496</v>
+        <v>9.594775670878544</v>
       </c>
       <c r="M13">
-        <v>135.3167051714644</v>
+        <v>74.95807761253921</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.25119740697079</v>
+        <v>26.17929898995575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.999495001441172</v>
+        <v>7.523024220645097</v>
       </c>
       <c r="D14">
-        <v>3.777277424507693</v>
+        <v>6.834609748115803</v>
       </c>
       <c r="E14">
-        <v>15.17133351385192</v>
+        <v>12.02931405353312</v>
       </c>
       <c r="F14">
-        <v>22.0665313375812</v>
+        <v>32.75054904388578</v>
       </c>
       <c r="G14">
-        <v>1.954845007399828</v>
+        <v>3.662085153502175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.95857150803765</v>
+        <v>25.86683914981736</v>
       </c>
       <c r="J14">
-        <v>11.37092190477405</v>
+        <v>9.416963326485631</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.99439548960803</v>
+        <v>9.592723813758406</v>
       </c>
       <c r="M14">
-        <v>133.6082439419784</v>
+        <v>74.38624379358112</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.81944651612785</v>
+        <v>26.23225960397723</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.936438282179843</v>
+        <v>7.532441578286281</v>
       </c>
       <c r="D15">
-        <v>3.738837969420125</v>
+        <v>6.839046484811928</v>
       </c>
       <c r="E15">
-        <v>15.01703473467216</v>
+        <v>12.02643578391527</v>
       </c>
       <c r="F15">
-        <v>21.72276061094341</v>
+        <v>32.80036293208867</v>
       </c>
       <c r="G15">
-        <v>1.957363294664181</v>
+        <v>3.66252662554848</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.69929988430312</v>
+        <v>25.90327449512836</v>
       </c>
       <c r="J15">
-        <v>11.263573971142</v>
+        <v>9.418976683299437</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.88419917453875</v>
+        <v>9.591525338314767</v>
       </c>
       <c r="M15">
-        <v>132.5736859807668</v>
+        <v>74.03369294728516</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.56086099078999</v>
+        <v>26.26494565897204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.601707599273921</v>
+        <v>7.587088956062707</v>
       </c>
       <c r="D16">
-        <v>3.529460786208045</v>
+        <v>6.864858020802044</v>
       </c>
       <c r="E16">
-        <v>14.17085559637837</v>
+        <v>12.01138494653799</v>
       </c>
       <c r="F16">
-        <v>19.87922236185483</v>
+        <v>33.09084098788187</v>
       </c>
       <c r="G16">
-        <v>1.97121677963806</v>
+        <v>3.665085465343083</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.2953601744307</v>
+        <v>26.11556061629106</v>
       </c>
       <c r="J16">
-        <v>10.67204906218969</v>
+        <v>9.431455593537061</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.27576474447937</v>
+        <v>9.585547173602096</v>
       </c>
       <c r="M16">
-        <v>126.7863306805548</v>
+        <v>71.97834533294952</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.15630419500338</v>
+        <v>26.4559999077526</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.416561600909339</v>
+        <v>7.621220058734298</v>
       </c>
       <c r="D17">
-        <v>3.408714992439148</v>
+        <v>6.881037482157762</v>
       </c>
       <c r="E17">
-        <v>13.67831383023863</v>
+        <v>12.00343046013724</v>
       </c>
       <c r="F17">
-        <v>18.84644560962856</v>
+        <v>33.27347472013484</v>
       </c>
       <c r="G17">
-        <v>1.979303972785648</v>
+        <v>3.666681194534433</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.49617839906748</v>
+        <v>26.24888315283892</v>
       </c>
       <c r="J17">
-        <v>10.32542600976004</v>
+        <v>9.439943275067071</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.91823656330511</v>
+        <v>9.582668884660251</v>
       </c>
       <c r="M17">
-        <v>123.3267117781775</v>
+        <v>70.68623549382708</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.35288670424329</v>
+        <v>26.57651512734666</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.316404583317933</v>
+        <v>7.641074221214107</v>
       </c>
       <c r="D18">
-        <v>3.34146384770785</v>
+        <v>6.890470298471612</v>
       </c>
       <c r="E18">
-        <v>13.40246987670955</v>
+        <v>11.99932147835349</v>
       </c>
       <c r="F18">
-        <v>18.28408640728576</v>
+        <v>33.38013526061768</v>
       </c>
       <c r="G18">
-        <v>1.983837075467152</v>
+        <v>3.667608611696912</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.05599718513182</v>
+        <v>26.32669447125075</v>
       </c>
       <c r="J18">
-        <v>10.13051793369006</v>
+        <v>9.445128059348487</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.71685918434919</v>
+        <v>9.581301433039044</v>
       </c>
       <c r="M18">
-        <v>121.3591249510293</v>
+        <v>69.93159027746167</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.90888070247233</v>
+        <v>26.64703660726524</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.283500138014356</v>
+        <v>7.647834767217494</v>
       </c>
       <c r="D19">
-        <v>3.319023702686682</v>
+        <v>6.893685875432168</v>
       </c>
       <c r="E19">
-        <v>13.31017860241863</v>
+        <v>11.99800996849127</v>
       </c>
       <c r="F19">
-        <v>18.09880135751859</v>
+        <v>33.41652455779959</v>
       </c>
       <c r="G19">
-        <v>1.985354073377972</v>
+        <v>3.667924272417202</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.91006216068107</v>
+        <v>26.35323294862177</v>
       </c>
       <c r="J19">
-        <v>10.0651762086548</v>
+        <v>9.44693528215309</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.64929319435501</v>
+        <v>9.58088772859335</v>
       </c>
       <c r="M19">
-        <v>120.6959224193997</v>
+        <v>69.67411436898649</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.76141106446049</v>
+        <v>26.6711197023326</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.435594765867135</v>
+        <v>7.61756367799285</v>
       </c>
       <c r="D20">
-        <v>3.421329069062631</v>
+        <v>6.879302027188014</v>
       </c>
       <c r="E20">
-        <v>13.72993043629251</v>
+        <v>12.00422889201177</v>
       </c>
       <c r="F20">
-        <v>18.95302811548389</v>
+        <v>33.25386562014395</v>
       </c>
       <c r="G20">
-        <v>1.978455962724129</v>
+        <v>3.666510334510635</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.57917402150687</v>
+        <v>26.23457383830399</v>
       </c>
       <c r="J20">
-        <v>10.36183412167708</v>
+        <v>9.439008332163899</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.95582591453386</v>
+        <v>9.582945426227727</v>
       </c>
       <c r="M20">
-        <v>123.6924761330091</v>
+        <v>70.82496905342188</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.43647687800905</v>
+        <v>26.56356116971089</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.030266396720286</v>
+        <v>7.518520381605441</v>
       </c>
       <c r="D21">
-        <v>3.795938699743252</v>
+        <v>6.832489045557653</v>
       </c>
       <c r="E21">
-        <v>15.24612618798687</v>
+        <v>12.0307199224692</v>
       </c>
       <c r="F21">
-        <v>22.23387946536344</v>
+        <v>32.72675121613076</v>
       </c>
       <c r="G21">
-        <v>1.95362538882369</v>
+        <v>3.661873965654603</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.08454148852711</v>
+        <v>25.8494294660902</v>
       </c>
       <c r="J21">
-        <v>11.42290093863031</v>
+        <v>9.416014623033753</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.04773021569035</v>
+        <v>9.593314323855545</v>
       </c>
       <c r="M21">
-        <v>134.1074595704451</v>
+        <v>74.55468170697964</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.94500222774028</v>
+        <v>26.21665241964713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.506286152723899</v>
+        <v>7.455777238555806</v>
       </c>
       <c r="D22">
-        <v>4.077998663735684</v>
+        <v>6.803022204803779</v>
       </c>
       <c r="E22">
-        <v>16.36762276413783</v>
+        <v>12.05226278398478</v>
       </c>
       <c r="F22">
-        <v>24.78801060330606</v>
+        <v>32.39696388670961</v>
       </c>
       <c r="G22">
-        <v>1.935438878287636</v>
+        <v>3.658928116330366</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.99061568391795</v>
+        <v>25.60794439349139</v>
       </c>
       <c r="J22">
-        <v>12.19814216912396</v>
+        <v>9.403747725384504</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.84144999831434</v>
+        <v>9.6026972397355</v>
       </c>
       <c r="M22">
-        <v>141.4199297948182</v>
+        <v>76.88997784431471</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.8389661393676</v>
+        <v>26.0009119386947</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.241913367056731</v>
+        <v>7.489082400250535</v>
       </c>
       <c r="D23">
-        <v>3.922751544978699</v>
+        <v>6.818646030019433</v>
       </c>
       <c r="E23">
-        <v>15.75241231914464</v>
+        <v>12.04037425994054</v>
       </c>
       <c r="F23">
-        <v>23.37756522183388</v>
+        <v>32.57161430784607</v>
       </c>
       <c r="G23">
-        <v>1.945389967503724</v>
+        <v>3.660492716736544</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.94158402459837</v>
+        <v>25.7358840546525</v>
       </c>
       <c r="J23">
-        <v>11.77382702617255</v>
+        <v>9.41003905552339</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.4074169398714</v>
+        <v>9.597448946158698</v>
       </c>
       <c r="M23">
-        <v>137.4483893404474</v>
+        <v>75.65295193947983</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.79790247011702</v>
+        <v>26.11503851783797</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.426970542119722</v>
+        <v>7.619216005943506</v>
       </c>
       <c r="D24">
-        <v>3.415619639333511</v>
+        <v>6.880086218241571</v>
       </c>
       <c r="E24">
-        <v>13.7065722829554</v>
+        <v>12.00386647608298</v>
       </c>
       <c r="F24">
-        <v>18.90474537466454</v>
+        <v>33.26272572118816</v>
       </c>
       <c r="G24">
-        <v>1.978839702893026</v>
+        <v>3.666587549132208</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.54159241331601</v>
+        <v>26.24103946075127</v>
       </c>
       <c r="J24">
-        <v>10.34536074982388</v>
+        <v>9.439430070221398</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.93881912703466</v>
+        <v>9.582819507319426</v>
       </c>
       <c r="M24">
-        <v>123.527049965508</v>
+        <v>70.76228434332216</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.39863079557786</v>
+        <v>26.56941380792842</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.790537134332555</v>
+        <v>7.768107203251182</v>
       </c>
       <c r="D25">
-        <v>3.282010909891815</v>
+        <v>6.951209304507169</v>
       </c>
       <c r="E25">
-        <v>11.78333714394971</v>
+        <v>11.98226209070112</v>
       </c>
       <c r="F25">
-        <v>15.29834279218465</v>
+        <v>34.06976437213633</v>
       </c>
       <c r="G25">
-        <v>2.010424490001216</v>
+        <v>3.67352934931339</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.62305694565334</v>
+        <v>26.82895750561045</v>
       </c>
       <c r="J25">
-        <v>8.97397427313407</v>
+        <v>9.482677924713256</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.516658880019627</v>
+        <v>9.578027676522181</v>
       </c>
       <c r="M25">
-        <v>109.3553664248925</v>
+        <v>65.04934424225102</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.42559392547063</v>
+        <v>27.10544383035086</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.885082333931324</v>
+        <v>2.965509449142176</v>
       </c>
       <c r="D2">
-        <v>7.007767235305031</v>
+        <v>3.401314792486086</v>
       </c>
       <c r="E2">
-        <v>11.98118886863211</v>
+        <v>10.45692872779265</v>
       </c>
       <c r="F2">
-        <v>34.71544382563388</v>
+        <v>14.29056281877771</v>
       </c>
       <c r="G2">
-        <v>3.678963699735785</v>
+        <v>2.032045394977626</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.29803617798842</v>
+        <v>10.97643925812058</v>
       </c>
       <c r="J2">
-        <v>9.524122541916787</v>
+        <v>8.008055864307421</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.583718933443111</v>
+        <v>8.50694966327638</v>
       </c>
       <c r="M2">
-        <v>60.46959249696625</v>
+        <v>98.90382349256338</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.53840627938159</v>
+        <v>12.53824340469714</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.968954733943305</v>
+        <v>3.155769952525058</v>
       </c>
       <c r="D3">
-        <v>7.048721818118671</v>
+        <v>3.493217419662683</v>
       </c>
       <c r="E3">
-        <v>11.98947848744773</v>
+        <v>9.575297681885894</v>
       </c>
       <c r="F3">
-        <v>35.18446773958331</v>
+        <v>14.24603989467697</v>
       </c>
       <c r="G3">
-        <v>3.682851571810195</v>
+        <v>2.04626040593175</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.6381568321496</v>
+        <v>11.12653449653947</v>
       </c>
       <c r="J3">
-        <v>9.55804152759163</v>
+        <v>7.354669086816037</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.593210467867189</v>
+        <v>7.819950236848565</v>
       </c>
       <c r="M3">
-        <v>57.13609579565174</v>
+        <v>91.6194878047081</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.8551623561513</v>
+        <v>12.44611192008778</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.022725822857376</v>
+        <v>3.288569250660881</v>
       </c>
       <c r="D4">
-        <v>7.075166537152021</v>
+        <v>3.553723368080477</v>
       </c>
       <c r="E4">
-        <v>11.99893571001962</v>
+        <v>9.034592660800337</v>
       </c>
       <c r="F4">
-        <v>35.48775941154377</v>
+        <v>14.40443646105993</v>
       </c>
       <c r="G4">
-        <v>3.685340911345668</v>
+        <v>2.054897404982735</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.85784480651443</v>
+        <v>11.33711253411251</v>
       </c>
       <c r="J4">
-        <v>9.581694126228106</v>
+        <v>6.948534617900323</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.601779054518268</v>
+        <v>7.391253189319504</v>
       </c>
       <c r="M4">
-        <v>54.97768428405774</v>
+        <v>87.00699623908422</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.06099155482351</v>
+        <v>12.50220846709256</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.045210293847555</v>
+        <v>3.345704564278135</v>
       </c>
       <c r="D5">
-        <v>7.086269990229058</v>
+        <v>3.57926699384157</v>
       </c>
       <c r="E5">
-        <v>12.00387590002504</v>
+        <v>8.813539857389454</v>
       </c>
       <c r="F5">
-        <v>35.61517421618255</v>
+        <v>14.5079479768707</v>
       </c>
       <c r="G5">
-        <v>3.686381175719935</v>
+        <v>2.058408495267685</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.95008264254452</v>
+        <v>11.44728058842474</v>
       </c>
       <c r="J5">
-        <v>9.592036207694063</v>
+        <v>6.781147500754516</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.605954415504565</v>
+        <v>7.21418943586231</v>
       </c>
       <c r="M5">
-        <v>54.07039149097371</v>
+        <v>85.08752416218732</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.14769556508875</v>
+        <v>12.54923910028538</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.04897841288728</v>
+        <v>3.35535147805465</v>
       </c>
       <c r="D6">
-        <v>7.088133476700607</v>
+        <v>3.583558846836012</v>
       </c>
       <c r="E6">
-        <v>12.00476147242302</v>
+        <v>8.776770067116441</v>
       </c>
       <c r="F6">
-        <v>35.63656132505193</v>
+        <v>14.52727118337292</v>
       </c>
       <c r="G6">
-        <v>3.686555475630685</v>
+        <v>2.058991356784783</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.96556209498961</v>
+        <v>11.4668997627541</v>
       </c>
       <c r="J6">
-        <v>9.593795782563545</v>
+        <v>6.753222954161534</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.606688854745856</v>
+        <v>7.184628998000063</v>
       </c>
       <c r="M6">
-        <v>53.91807385305455</v>
+        <v>84.76627195406419</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.16226274744211</v>
+        <v>12.55839185916086</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.023026737949614</v>
+        <v>3.289328640789994</v>
       </c>
       <c r="D7">
-        <v>7.075314957416251</v>
+        <v>3.554064417546597</v>
       </c>
       <c r="E7">
-        <v>11.99899795263378</v>
+        <v>9.031615329554977</v>
       </c>
       <c r="F7">
-        <v>35.48946233742306</v>
+        <v>14.40568463819828</v>
       </c>
       <c r="G7">
-        <v>3.685354835903653</v>
+        <v>2.054944774598103</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.85907779252945</v>
+        <v>11.33850635078379</v>
       </c>
       <c r="J7">
-        <v>9.581830764249045</v>
+        <v>6.946285555025828</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.601832604429914</v>
+        <v>7.388875574849285</v>
       </c>
       <c r="M7">
-        <v>54.96555993642838</v>
+        <v>86.98127638039965</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.06214946063062</v>
+        <v>12.50275018168045</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.913530171277305</v>
+        <v>3.027068649534673</v>
       </c>
       <c r="D8">
-        <v>7.021619186707994</v>
+        <v>3.432057409652897</v>
       </c>
       <c r="E8">
-        <v>11.9831335661963</v>
+        <v>10.15221499831851</v>
       </c>
       <c r="F8">
-        <v>34.87396811441744</v>
+        <v>14.2319429514567</v>
       </c>
       <c r="G8">
-        <v>3.680283122322213</v>
+        <v>2.036975299602745</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.41304757633114</v>
+        <v>11.00015949676534</v>
       </c>
       <c r="J8">
-        <v>9.535226820382176</v>
+        <v>7.783365793433257</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.586419405023936</v>
+        <v>8.271070614114894</v>
       </c>
       <c r="M8">
-        <v>59.34355298329994</v>
+        <v>96.41807157777588</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.64525511255687</v>
+        <v>12.48052282055195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.716813183728945</v>
+        <v>2.980304017366376</v>
       </c>
       <c r="D9">
-        <v>6.926601802015522</v>
+        <v>3.23501495385957</v>
       </c>
       <c r="E9">
-        <v>11.98720440298697</v>
+        <v>12.41032611903901</v>
       </c>
       <c r="F9">
-        <v>33.7898243639255</v>
+        <v>16.38060774011235</v>
       </c>
       <c r="G9">
-        <v>3.671141257296307</v>
+        <v>2.000141446011777</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.62524251442751</v>
+        <v>12.52922768056105</v>
       </c>
       <c r="J9">
-        <v>9.46659683443106</v>
+        <v>9.424499232459789</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.578194193051543</v>
+        <v>9.985289938488865</v>
       </c>
       <c r="M9">
-        <v>67.03203838171132</v>
+        <v>114.0980544761871</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.91885700645192</v>
+        <v>14.35783521879377</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.583224564207361</v>
+        <v>3.623762667779025</v>
       </c>
       <c r="D10">
-        <v>6.863029011277801</v>
+        <v>3.543577713236733</v>
       </c>
       <c r="E10">
-        <v>12.01235605307332</v>
+        <v>14.22821850453666</v>
       </c>
       <c r="F10">
-        <v>33.07022106769214</v>
+        <v>20.00164191488184</v>
       </c>
       <c r="G10">
-        <v>3.664904677901908</v>
+        <v>1.970275780414532</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.10050100678478</v>
+        <v>15.389406987526</v>
       </c>
       <c r="J10">
-        <v>9.430528346877622</v>
+        <v>10.71230442371045</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.58591478027879</v>
+        <v>11.31723783864412</v>
       </c>
       <c r="M10">
-        <v>72.1242302232743</v>
+        <v>127.1848394106222</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.442412328337</v>
+        <v>17.25064551001404</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.524822473836869</v>
+        <v>3.987321268877055</v>
       </c>
       <c r="D11">
-        <v>6.835456693024399</v>
+        <v>3.769877454136507</v>
       </c>
       <c r="E11">
-        <v>12.02875802910499</v>
+        <v>15.14165433734874</v>
       </c>
       <c r="F11">
-        <v>32.76005546295936</v>
+        <v>22.00025091172374</v>
       </c>
       <c r="G11">
-        <v>3.662169464860057</v>
+        <v>1.955329171597781</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.87379313402954</v>
+        <v>16.90863608532405</v>
       </c>
       <c r="J11">
-        <v>9.417344678408572</v>
+        <v>11.35028564506497</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.592491171494673</v>
+        <v>11.97321676520661</v>
       </c>
       <c r="M11">
-        <v>74.31896086743527</v>
+        <v>133.4097371077476</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.23849560247476</v>
+        <v>18.76966082505127</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.503047769016325</v>
+        <v>4.139155255628131</v>
       </c>
       <c r="D12">
-        <v>6.825209209800573</v>
+        <v>3.861500649127552</v>
       </c>
       <c r="E12">
-        <v>12.03569384477428</v>
+        <v>15.50830116957966</v>
       </c>
       <c r="F12">
-        <v>32.64512221070988</v>
+        <v>22.82389223927716</v>
       </c>
       <c r="G12">
-        <v>3.661148173449325</v>
+        <v>1.949356103797871</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.789696274398</v>
+        <v>17.52748063701454</v>
       </c>
       <c r="J12">
-        <v>9.412825194701806</v>
+        <v>11.60482474525944</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.595428166069544</v>
+        <v>12.2342799146945</v>
       </c>
       <c r="M12">
-        <v>75.13250889096126</v>
+        <v>135.8458224171489</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.16315797849509</v>
+        <v>19.38608141140903</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.5077221710913</v>
+        <v>4.105727145498507</v>
       </c>
       <c r="D13">
-        <v>6.827407582458908</v>
+        <v>3.841449086689091</v>
       </c>
       <c r="E13">
-        <v>12.0341676807419</v>
+        <v>15.42821450798992</v>
       </c>
       <c r="F13">
-        <v>32.66976226165723</v>
+        <v>22.6431235236565</v>
       </c>
       <c r="G13">
-        <v>3.661367485829329</v>
+        <v>1.950659229572645</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.80772964165696</v>
+        <v>17.39196224497936</v>
       </c>
       <c r="J13">
-        <v>9.413777364366076</v>
+        <v>11.54929851229974</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.594775670878544</v>
+        <v>12.17736123403497</v>
       </c>
       <c r="M13">
-        <v>74.95807761253921</v>
+        <v>135.3167051714642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.17929898995575</v>
+        <v>19.25119740697085</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.523024220645097</v>
+        <v>3.999495001441251</v>
       </c>
       <c r="D14">
-        <v>6.834609748115803</v>
+        <v>3.777277424507707</v>
       </c>
       <c r="E14">
-        <v>12.02931405353312</v>
+        <v>15.17133351385191</v>
       </c>
       <c r="F14">
-        <v>32.75054904388578</v>
+        <v>22.06653133758106</v>
       </c>
       <c r="G14">
-        <v>3.662085153502175</v>
+        <v>1.954845007399696</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.86683914981736</v>
+        <v>16.95857150803754</v>
       </c>
       <c r="J14">
-        <v>9.416963326485631</v>
+        <v>11.37092190477403</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.592723813758406</v>
+        <v>11.99439548960802</v>
       </c>
       <c r="M14">
-        <v>74.38624379358112</v>
+        <v>133.6082439419783</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.23225960397723</v>
+        <v>18.81944651612773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.532441578286281</v>
+        <v>3.936438282179998</v>
       </c>
       <c r="D15">
-        <v>6.839046484811928</v>
+        <v>3.738837969420125</v>
       </c>
       <c r="E15">
-        <v>12.02643578391527</v>
+        <v>15.01703473467214</v>
       </c>
       <c r="F15">
-        <v>32.80036293208867</v>
+        <v>21.72276061094353</v>
       </c>
       <c r="G15">
-        <v>3.66252662554848</v>
+        <v>1.957363294664047</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.90327449512836</v>
+        <v>16.6992998843032</v>
       </c>
       <c r="J15">
-        <v>9.418976683299437</v>
+        <v>11.26357397114194</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.591525338314767</v>
+        <v>11.88419917453875</v>
       </c>
       <c r="M15">
-        <v>74.03369294728516</v>
+        <v>132.5736859807663</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.26494565897204</v>
+        <v>18.56086099079004</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.587088956062707</v>
+        <v>3.601707599273826</v>
       </c>
       <c r="D16">
-        <v>6.864858020802044</v>
+        <v>3.529460786208086</v>
       </c>
       <c r="E16">
-        <v>12.01138494653799</v>
+        <v>14.17085559637834</v>
       </c>
       <c r="F16">
-        <v>33.09084098788187</v>
+        <v>19.87922236185479</v>
       </c>
       <c r="G16">
-        <v>3.665085465343083</v>
+        <v>1.971216779637925</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.11556061629106</v>
+        <v>15.29536017443064</v>
       </c>
       <c r="J16">
-        <v>9.431455593537061</v>
+        <v>10.67204906218968</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.585547173602096</v>
+        <v>11.27576474447939</v>
       </c>
       <c r="M16">
-        <v>71.97834533294952</v>
+        <v>126.7863306805548</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.4559999077526</v>
+        <v>17.15630419500334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.621220058734298</v>
+        <v>3.416561600909367</v>
       </c>
       <c r="D17">
-        <v>6.881037482157762</v>
+        <v>3.408714992439141</v>
       </c>
       <c r="E17">
-        <v>12.00343046013724</v>
+        <v>13.67831383023864</v>
       </c>
       <c r="F17">
-        <v>33.27347472013484</v>
+        <v>18.84644560962866</v>
       </c>
       <c r="G17">
-        <v>3.666681194534433</v>
+        <v>1.979303972785648</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.24888315283892</v>
+        <v>14.49617839906756</v>
       </c>
       <c r="J17">
-        <v>9.439943275067071</v>
+        <v>10.32542600976002</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.582668884660251</v>
+        <v>10.91823656330511</v>
       </c>
       <c r="M17">
-        <v>70.68623549382708</v>
+        <v>123.3267117781776</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.57651512734666</v>
+        <v>16.35288670424341</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.641074221214107</v>
+        <v>3.316404583317939</v>
       </c>
       <c r="D18">
-        <v>6.890470298471612</v>
+        <v>3.34146384770782</v>
       </c>
       <c r="E18">
-        <v>11.99932147835349</v>
+        <v>13.40246987670954</v>
       </c>
       <c r="F18">
-        <v>33.38013526061768</v>
+        <v>18.28408640728569</v>
       </c>
       <c r="G18">
-        <v>3.667608611696912</v>
+        <v>1.983837075467152</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.32669447125075</v>
+        <v>14.05599718513177</v>
       </c>
       <c r="J18">
-        <v>9.445128059348487</v>
+        <v>10.1305179336901</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.581301433039044</v>
+        <v>10.71685918434921</v>
       </c>
       <c r="M18">
-        <v>69.93159027746167</v>
+        <v>121.3591249510294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.64703660726524</v>
+        <v>15.90888070247228</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.647834767217494</v>
+        <v>3.28350013801442</v>
       </c>
       <c r="D19">
-        <v>6.893685875432168</v>
+        <v>3.319023702686704</v>
       </c>
       <c r="E19">
-        <v>11.99800996849127</v>
+        <v>13.31017860241876</v>
       </c>
       <c r="F19">
-        <v>33.41652455779959</v>
+        <v>18.09880135751865</v>
       </c>
       <c r="G19">
-        <v>3.667924272417202</v>
+        <v>1.985354073377839</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.35323294862177</v>
+        <v>13.91006216068114</v>
       </c>
       <c r="J19">
-        <v>9.44693528215309</v>
+        <v>10.06517620865483</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.58088772859335</v>
+        <v>10.64929319435502</v>
       </c>
       <c r="M19">
-        <v>69.67411436898649</v>
+        <v>120.6959224194</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.6711197023326</v>
+        <v>15.76141106446053</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.61756367799285</v>
+        <v>3.435594765867058</v>
       </c>
       <c r="D20">
-        <v>6.879302027188014</v>
+        <v>3.421329069062694</v>
       </c>
       <c r="E20">
-        <v>12.00422889201177</v>
+        <v>13.7299304362925</v>
       </c>
       <c r="F20">
-        <v>33.25386562014395</v>
+        <v>18.9530281154838</v>
       </c>
       <c r="G20">
-        <v>3.666510334510635</v>
+        <v>1.978455962723994</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.23457383830399</v>
+        <v>14.57917402150676</v>
       </c>
       <c r="J20">
-        <v>9.439008332163899</v>
+        <v>10.36183412167703</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.582945426227727</v>
+        <v>10.95582591453386</v>
       </c>
       <c r="M20">
-        <v>70.82496905342188</v>
+        <v>123.6924761330091</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.56356116971089</v>
+        <v>16.43647687800891</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.518520381605441</v>
+        <v>4.030266396720379</v>
       </c>
       <c r="D21">
-        <v>6.832489045557653</v>
+        <v>3.795938699743304</v>
       </c>
       <c r="E21">
-        <v>12.0307199224692</v>
+        <v>15.24612618798691</v>
       </c>
       <c r="F21">
-        <v>32.72675121613076</v>
+        <v>22.23387946536347</v>
       </c>
       <c r="G21">
-        <v>3.661873965654603</v>
+        <v>1.953625388823824</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.8494294660902</v>
+        <v>17.0845414885271</v>
       </c>
       <c r="J21">
-        <v>9.416014623033753</v>
+        <v>11.42290093863028</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.593314323855545</v>
+        <v>12.04773021569038</v>
       </c>
       <c r="M21">
-        <v>74.55468170697964</v>
+        <v>134.1074595704453</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.21665241964713</v>
+        <v>18.94500222774028</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.455777238555806</v>
+        <v>4.506286152723783</v>
       </c>
       <c r="D22">
-        <v>6.803022204803779</v>
+        <v>4.07799866373567</v>
       </c>
       <c r="E22">
-        <v>12.05226278398478</v>
+        <v>16.36762276413779</v>
       </c>
       <c r="F22">
-        <v>32.39696388670961</v>
+        <v>24.78801060330645</v>
       </c>
       <c r="G22">
-        <v>3.658928116330366</v>
+        <v>1.935438878287635</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.60794439349139</v>
+        <v>18.9906156839182</v>
       </c>
       <c r="J22">
-        <v>9.403747725384504</v>
+        <v>12.19814216912392</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.6026972397355</v>
+        <v>12.84144999831435</v>
       </c>
       <c r="M22">
-        <v>76.88997784431471</v>
+        <v>141.4199297948182</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.0009119386947</v>
+        <v>20.83896613936788</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.489082400250535</v>
+        <v>4.241913367056742</v>
       </c>
       <c r="D23">
-        <v>6.818646030019433</v>
+        <v>3.92275154497873</v>
       </c>
       <c r="E23">
-        <v>12.04037425994054</v>
+        <v>15.75241231914474</v>
       </c>
       <c r="F23">
-        <v>32.57161430784607</v>
+        <v>23.37756522183406</v>
       </c>
       <c r="G23">
-        <v>3.660492716736544</v>
+        <v>1.945389967503726</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.7358840546525</v>
+        <v>17.94158402459845</v>
       </c>
       <c r="J23">
-        <v>9.41003905552339</v>
+        <v>11.7738270261726</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.597448946158698</v>
+        <v>12.40741693987147</v>
       </c>
       <c r="M23">
-        <v>75.65295193947983</v>
+        <v>137.4483893404476</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.11503851783797</v>
+        <v>19.79790247011712</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.619216005943506</v>
+        <v>3.426970542119715</v>
       </c>
       <c r="D24">
-        <v>6.880086218241571</v>
+        <v>3.415619639333534</v>
       </c>
       <c r="E24">
-        <v>12.00386647608298</v>
+        <v>13.70657228295548</v>
       </c>
       <c r="F24">
-        <v>33.26272572118816</v>
+        <v>18.90474537466456</v>
       </c>
       <c r="G24">
-        <v>3.666587549132208</v>
+        <v>1.978839702893027</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.24103946075127</v>
+        <v>14.54159241331598</v>
       </c>
       <c r="J24">
-        <v>9.439430070221398</v>
+        <v>10.34536074982391</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.582819507319426</v>
+        <v>10.93881912703476</v>
       </c>
       <c r="M24">
-        <v>70.76228434332216</v>
+        <v>123.5270499655081</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.56941380792842</v>
+        <v>16.39863079557784</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.768107203251182</v>
+        <v>2.790537134332495</v>
       </c>
       <c r="D25">
-        <v>6.951209304507169</v>
+        <v>3.282010909891808</v>
       </c>
       <c r="E25">
-        <v>11.98226209070112</v>
+        <v>11.78333714394971</v>
       </c>
       <c r="F25">
-        <v>34.06976437213633</v>
+        <v>15.29834279218463</v>
       </c>
       <c r="G25">
-        <v>3.67352934931339</v>
+        <v>2.010424490001216</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.82895750561045</v>
+        <v>11.62305694565333</v>
       </c>
       <c r="J25">
-        <v>9.482677924713256</v>
+        <v>8.973974273134031</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.578027676522181</v>
+        <v>9.516658880019598</v>
       </c>
       <c r="M25">
-        <v>65.04934424225102</v>
+        <v>109.3553664248924</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.10544383035086</v>
+        <v>13.42559392547061</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.965509449142176</v>
+        <v>5.294907483190551</v>
       </c>
       <c r="D2">
-        <v>3.401314792486086</v>
+        <v>7.214000040940974</v>
       </c>
       <c r="E2">
-        <v>10.45692872779265</v>
+        <v>9.456446719804545</v>
       </c>
       <c r="F2">
-        <v>14.29056281877771</v>
+        <v>19.19451679954401</v>
       </c>
       <c r="G2">
-        <v>2.032045394977626</v>
+        <v>19.36692313553932</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.891609307734453</v>
       </c>
       <c r="I2">
-        <v>10.97643925812058</v>
+        <v>3.146895714439</v>
       </c>
       <c r="J2">
-        <v>8.008055864307421</v>
+        <v>8.478724946392655</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.52987091724074</v>
       </c>
       <c r="L2">
-        <v>8.50694966327638</v>
+        <v>6.242815994503448</v>
       </c>
       <c r="M2">
-        <v>98.90382349256338</v>
+        <v>20.78800075199542</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.53824340469714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.64703940005483</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.38060981055738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.155769952525058</v>
+        <v>4.968174178260421</v>
       </c>
       <c r="D3">
-        <v>3.493217419662683</v>
+        <v>6.956158475304732</v>
       </c>
       <c r="E3">
-        <v>9.575297681885894</v>
+        <v>9.246930851123279</v>
       </c>
       <c r="F3">
-        <v>14.24603989467697</v>
+        <v>19.08297009681702</v>
       </c>
       <c r="G3">
-        <v>2.04626040593175</v>
+        <v>19.30788155991156</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.094557182415813</v>
       </c>
       <c r="I3">
-        <v>11.12653449653947</v>
+        <v>2.988318550058827</v>
       </c>
       <c r="J3">
-        <v>7.354669086816037</v>
+        <v>8.559436334261315</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.50775768741183</v>
       </c>
       <c r="L3">
-        <v>7.819950236848565</v>
+        <v>6.199844762491296</v>
       </c>
       <c r="M3">
-        <v>91.6194878047081</v>
+        <v>19.50819161544574</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.44611192008778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.69144374356136</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.47296164737623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.288569250660881</v>
+        <v>4.75072050923082</v>
       </c>
       <c r="D4">
-        <v>3.553723368080477</v>
+        <v>6.794279679323916</v>
       </c>
       <c r="E4">
-        <v>9.034592660800337</v>
+        <v>9.116018344811936</v>
       </c>
       <c r="F4">
-        <v>14.40443646105993</v>
+        <v>19.02435349164567</v>
       </c>
       <c r="G4">
-        <v>2.054897404982735</v>
+        <v>19.28837269083427</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.223615492474039</v>
       </c>
       <c r="I4">
-        <v>11.33711253411251</v>
+        <v>2.887725651609796</v>
       </c>
       <c r="J4">
-        <v>6.948534617900323</v>
+        <v>8.612365018297796</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.49911628604625</v>
       </c>
       <c r="L4">
-        <v>7.391253189319504</v>
+        <v>6.17275843440818</v>
       </c>
       <c r="M4">
-        <v>87.00699623908422</v>
+        <v>18.6771322524458</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.50220846709256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.07397826105567</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.53743453354411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.345704564278135</v>
+        <v>4.643912129897044</v>
       </c>
       <c r="D5">
-        <v>3.57926699384157</v>
+        <v>6.729055068275779</v>
       </c>
       <c r="E5">
-        <v>8.813539857389454</v>
+        <v>9.062407683908862</v>
       </c>
       <c r="F5">
-        <v>14.5079479768707</v>
+        <v>18.99680677548016</v>
       </c>
       <c r="G5">
-        <v>2.058408495267685</v>
+        <v>19.27347537005988</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.277564314840443</v>
       </c>
       <c r="I5">
-        <v>11.44728058842474</v>
+        <v>2.846259109832938</v>
       </c>
       <c r="J5">
-        <v>6.781147500754516</v>
+        <v>8.633118266850541</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.49009915793526</v>
       </c>
       <c r="L5">
-        <v>7.21418943586231</v>
+        <v>6.161287592183861</v>
       </c>
       <c r="M5">
-        <v>85.08752416218732</v>
+        <v>18.32690071211569</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.54923910028538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.8151383849938</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.56132119615754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.35535147805465</v>
+        <v>4.608865887356539</v>
       </c>
       <c r="D6">
-        <v>3.583558846836012</v>
+        <v>6.720086400954117</v>
       </c>
       <c r="E6">
-        <v>8.776770067116441</v>
+        <v>9.053807100393794</v>
       </c>
       <c r="F6">
-        <v>14.52727118337292</v>
+        <v>18.98493362065449</v>
       </c>
       <c r="G6">
-        <v>2.058991356784783</v>
+        <v>19.25781285443539</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.286863781739057</v>
       </c>
       <c r="I6">
-        <v>11.4668997627541</v>
+        <v>2.839942351170951</v>
       </c>
       <c r="J6">
-        <v>6.753222954161534</v>
+        <v>8.634608653377365</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.48048220303704</v>
       </c>
       <c r="L6">
-        <v>7.184628998000063</v>
+        <v>6.159060883126116</v>
       </c>
       <c r="M6">
-        <v>84.76627195406419</v>
+        <v>18.2677570649968</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.55839185916086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.77218016569373</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.5601918777588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.289328640789994</v>
+        <v>4.703726618306661</v>
       </c>
       <c r="D7">
-        <v>3.554064417546597</v>
+        <v>6.798552417221364</v>
       </c>
       <c r="E7">
-        <v>9.031615329554977</v>
+        <v>9.116209545657838</v>
       </c>
       <c r="F7">
-        <v>14.40568463819828</v>
+        <v>19.00369856181712</v>
       </c>
       <c r="G7">
-        <v>2.054944774598103</v>
+        <v>19.25151408805969</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.225070667644508</v>
       </c>
       <c r="I7">
-        <v>11.33850635078379</v>
+        <v>2.888522988442329</v>
       </c>
       <c r="J7">
-        <v>6.946285555025828</v>
+        <v>8.607167263197336</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.47662619879945</v>
       </c>
       <c r="L7">
-        <v>7.388875574849285</v>
+        <v>6.171766076174056</v>
       </c>
       <c r="M7">
-        <v>86.98127638039965</v>
+        <v>18.67163917579005</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.50275018168045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.07178656779992</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.52352117109002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.027068649534673</v>
+        <v>5.129765772290428</v>
       </c>
       <c r="D8">
-        <v>3.432057409652897</v>
+        <v>7.132408910768315</v>
       </c>
       <c r="E8">
-        <v>10.15221499831851</v>
+        <v>9.385920395052398</v>
       </c>
       <c r="F8">
-        <v>14.2319429514567</v>
+        <v>19.12744585194545</v>
       </c>
       <c r="G8">
-        <v>2.036975299602745</v>
+        <v>19.29477639022871</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.961589131629762</v>
       </c>
       <c r="I8">
-        <v>11.00015949676534</v>
+        <v>3.094202831500009</v>
       </c>
       <c r="J8">
-        <v>7.783365793433257</v>
+        <v>8.498598247927514</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.49171973256084</v>
       </c>
       <c r="L8">
-        <v>8.271070614114894</v>
+        <v>6.227084293755602</v>
       </c>
       <c r="M8">
-        <v>96.41807157777588</v>
+        <v>20.3551568515788</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.48052282055195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.32551867399381</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.39193951260387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.980304017366376</v>
+        <v>5.905261398313699</v>
       </c>
       <c r="D9">
-        <v>3.23501495385957</v>
+        <v>7.74707663888919</v>
       </c>
       <c r="E9">
-        <v>12.41032611903901</v>
+        <v>9.893637553652921</v>
       </c>
       <c r="F9">
-        <v>16.38060774011235</v>
+        <v>19.48654568241645</v>
       </c>
       <c r="G9">
-        <v>2.000141446011777</v>
+        <v>19.58509865999374</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.640860075265752</v>
       </c>
       <c r="I9">
-        <v>12.52922768056105</v>
+        <v>3.471180231273691</v>
       </c>
       <c r="J9">
-        <v>9.424499232459789</v>
+        <v>8.323372803598787</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.60188006490463</v>
       </c>
       <c r="L9">
-        <v>9.985289938488865</v>
+        <v>6.331483839098434</v>
       </c>
       <c r="M9">
-        <v>114.0980544761871</v>
+        <v>23.29719050427633</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.35783521879377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.5345222394602</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.22487005116358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.623762667779025</v>
+        <v>6.395291178837432</v>
       </c>
       <c r="D10">
-        <v>3.543577713236733</v>
+        <v>8.103156572940033</v>
       </c>
       <c r="E10">
-        <v>14.22821850453666</v>
+        <v>10.09962952701824</v>
       </c>
       <c r="F10">
-        <v>20.00164191488184</v>
+        <v>19.64921165131994</v>
       </c>
       <c r="G10">
-        <v>1.970275780414532</v>
+        <v>19.707384751126</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.959604030015507</v>
       </c>
       <c r="I10">
-        <v>15.389406987526</v>
+        <v>3.731079810705069</v>
       </c>
       <c r="J10">
-        <v>10.71230442371045</v>
+        <v>8.184383309677798</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.63637018933542</v>
       </c>
       <c r="L10">
-        <v>11.31723783864412</v>
+        <v>6.35751447805384</v>
       </c>
       <c r="M10">
-        <v>127.1848394106222</v>
+        <v>25.25899028424737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.25064551001404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.90999526721525</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.07230984353285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.987321268877055</v>
+        <v>6.709995540987254</v>
       </c>
       <c r="D11">
-        <v>3.769877454136507</v>
+        <v>7.624932268178827</v>
       </c>
       <c r="E11">
-        <v>15.14165433734874</v>
+        <v>8.973094995729582</v>
       </c>
       <c r="F11">
-        <v>22.00025091172374</v>
+        <v>18.46694982536376</v>
       </c>
       <c r="G11">
-        <v>1.955329171597781</v>
+        <v>18.27298856542296</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.859046721936031</v>
       </c>
       <c r="I11">
-        <v>16.90863608532405</v>
+        <v>3.822294663619077</v>
       </c>
       <c r="J11">
-        <v>11.35028564506497</v>
+        <v>7.890918679110342</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.08299534759998</v>
       </c>
       <c r="L11">
-        <v>11.97321676520661</v>
+        <v>6.061331295991493</v>
       </c>
       <c r="M11">
-        <v>133.4097371077476</v>
+        <v>26.28641681303599</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.76966082505127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.70002032097991</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.40334656826715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.139155255628131</v>
+        <v>6.937613952345692</v>
       </c>
       <c r="D12">
-        <v>3.861500649127552</v>
+        <v>7.141157467226855</v>
       </c>
       <c r="E12">
-        <v>15.50830116957966</v>
+        <v>8.157801798380317</v>
       </c>
       <c r="F12">
-        <v>22.82389223927716</v>
+        <v>17.45921842197283</v>
       </c>
       <c r="G12">
-        <v>1.949356103797871</v>
+        <v>17.07277979732159</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.135581704192701</v>
       </c>
       <c r="I12">
-        <v>17.52748063701454</v>
+        <v>3.845885813434793</v>
       </c>
       <c r="J12">
-        <v>11.60482474525944</v>
+        <v>7.681352768758855</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.63705375313067</v>
       </c>
       <c r="L12">
-        <v>12.2342799146945</v>
+        <v>5.95503120371073</v>
       </c>
       <c r="M12">
-        <v>135.8458224171489</v>
+        <v>26.7593157170859</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.38608141140903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.2285153705741</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.8913499686974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.105727145498507</v>
+        <v>7.065270248338548</v>
       </c>
       <c r="D13">
-        <v>3.841449086689091</v>
+        <v>6.62325696444932</v>
       </c>
       <c r="E13">
-        <v>15.42821450798992</v>
+        <v>7.585328580826658</v>
       </c>
       <c r="F13">
-        <v>22.6431235236565</v>
+        <v>16.4939536543577</v>
       </c>
       <c r="G13">
-        <v>1.950659229572645</v>
+        <v>15.91879221338557</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.469550857151218</v>
       </c>
       <c r="I13">
-        <v>17.39196224497936</v>
+        <v>3.820992282318206</v>
       </c>
       <c r="J13">
-        <v>11.54929851229974</v>
+        <v>7.516441542390892</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.21141623879541</v>
       </c>
       <c r="L13">
-        <v>12.17736123403497</v>
+        <v>5.990303277501445</v>
       </c>
       <c r="M13">
-        <v>135.3167051714642</v>
+        <v>26.84830949799976</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.25119740697085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.5144108505111</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.44977545560334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.999495001441251</v>
+        <v>7.10125077534337</v>
       </c>
       <c r="D14">
-        <v>3.777277424507707</v>
+        <v>6.245819819800944</v>
       </c>
       <c r="E14">
-        <v>15.17133351385191</v>
+        <v>7.358530200994497</v>
       </c>
       <c r="F14">
-        <v>22.06653133758106</v>
+        <v>15.84104609666346</v>
       </c>
       <c r="G14">
-        <v>1.954845007399696</v>
+        <v>15.13096445129642</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.453274677411737</v>
       </c>
       <c r="I14">
-        <v>16.95857150803754</v>
+        <v>3.782327622380139</v>
       </c>
       <c r="J14">
-        <v>11.37092190477403</v>
+        <v>7.422071217784644</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.91911704934499</v>
       </c>
       <c r="L14">
-        <v>11.99439548960802</v>
+        <v>6.0962441665377</v>
       </c>
       <c r="M14">
-        <v>133.6082439419783</v>
+        <v>26.73824253277559</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.81944651612773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.89443740812633</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.17498891562689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.936438282179998</v>
+        <v>7.073864720706498</v>
       </c>
       <c r="D15">
-        <v>3.738837969420125</v>
+        <v>6.147576559765121</v>
       </c>
       <c r="E15">
-        <v>15.01703473467214</v>
+        <v>7.328852187570887</v>
       </c>
       <c r="F15">
-        <v>21.72276061094353</v>
+        <v>15.68740992744715</v>
       </c>
       <c r="G15">
-        <v>1.957363294664047</v>
+        <v>14.94175039455014</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.691893393492338</v>
       </c>
       <c r="I15">
-        <v>16.6992998843032</v>
+        <v>3.762937238336843</v>
       </c>
       <c r="J15">
-        <v>11.26357397114194</v>
+        <v>7.407292926484835</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.84610910517</v>
       </c>
       <c r="L15">
-        <v>11.88419917453875</v>
+        <v>6.130393070824424</v>
       </c>
       <c r="M15">
-        <v>132.5736859807663</v>
+        <v>26.62829210023498</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.56086099079004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>17.69065297324342</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.12002118592903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.601707599273826</v>
+        <v>6.836177150491338</v>
       </c>
       <c r="D16">
-        <v>3.529460786208086</v>
+        <v>6.083397514304338</v>
       </c>
       <c r="E16">
-        <v>14.17085559637834</v>
+        <v>7.341224206449298</v>
       </c>
       <c r="F16">
-        <v>19.87922236185479</v>
+        <v>15.79946274707419</v>
       </c>
       <c r="G16">
-        <v>1.971216779637925</v>
+        <v>15.09128120576876</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.480096341819</v>
       </c>
       <c r="I16">
-        <v>15.29536017443064</v>
+        <v>3.658557485673199</v>
       </c>
       <c r="J16">
-        <v>10.67204906218968</v>
+        <v>7.499425575826042</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.90230327924153</v>
       </c>
       <c r="L16">
-        <v>11.27576474447939</v>
+        <v>6.103442133195639</v>
       </c>
       <c r="M16">
-        <v>126.7863306805548</v>
+        <v>25.81860903374206</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.15630419500334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.21686093838414</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.27214324127852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.416561600909367</v>
+        <v>6.62696724625517</v>
       </c>
       <c r="D17">
-        <v>3.408714992439141</v>
+        <v>6.238491414667708</v>
       </c>
       <c r="E17">
-        <v>13.67831383023864</v>
+        <v>7.441717688289703</v>
       </c>
       <c r="F17">
-        <v>18.84644560962866</v>
+        <v>16.22835520581831</v>
       </c>
       <c r="G17">
-        <v>1.979303972785648</v>
+        <v>15.62149673689185</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.736152890216948</v>
       </c>
       <c r="I17">
-        <v>14.49617839906756</v>
+        <v>3.598918661730472</v>
       </c>
       <c r="J17">
-        <v>10.32542600976002</v>
+        <v>7.618942378648116</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.09991957774635</v>
       </c>
       <c r="L17">
-        <v>10.91823656330511</v>
+        <v>6.01481452246529</v>
       </c>
       <c r="M17">
-        <v>123.3267117781776</v>
+        <v>25.24431939292693</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.35288670424341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.19354123898076</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.53107387770524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.316404583317939</v>
+        <v>6.456047564669625</v>
       </c>
       <c r="D18">
-        <v>3.34146384770782</v>
+        <v>6.603481442796665</v>
       </c>
       <c r="E18">
-        <v>13.40246987670954</v>
+        <v>7.787919215295918</v>
       </c>
       <c r="F18">
-        <v>18.28408640728569</v>
+        <v>17.00001460306166</v>
       </c>
       <c r="G18">
-        <v>1.983837075467152</v>
+        <v>16.56590886448518</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.467099502498055</v>
       </c>
       <c r="I18">
-        <v>14.05599718513177</v>
+        <v>3.570556915121106</v>
       </c>
       <c r="J18">
-        <v>10.1305179336901</v>
+        <v>7.780940040744371</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.45778810762643</v>
       </c>
       <c r="L18">
-        <v>10.71685918434921</v>
+        <v>5.937134454048191</v>
       </c>
       <c r="M18">
-        <v>121.3591249510294</v>
+        <v>24.82021017929552</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.90888070247228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.55857416980779</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.9248356579608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.28350013801442</v>
+        <v>6.265519735935514</v>
       </c>
       <c r="D19">
-        <v>3.319023702686704</v>
+        <v>7.123634622855117</v>
       </c>
       <c r="E19">
-        <v>13.31017860241876</v>
+        <v>8.503929862262529</v>
       </c>
       <c r="F19">
-        <v>18.09880135751865</v>
+        <v>17.97619904055641</v>
       </c>
       <c r="G19">
-        <v>1.985354073377839</v>
+        <v>17.72678055996191</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.958178555940379</v>
       </c>
       <c r="I19">
-        <v>13.91006216068114</v>
+        <v>3.576694667404138</v>
       </c>
       <c r="J19">
-        <v>10.06517620865483</v>
+        <v>7.96096946907277</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.88443379327014</v>
       </c>
       <c r="L19">
-        <v>10.64929319435502</v>
+        <v>5.985166414532727</v>
       </c>
       <c r="M19">
-        <v>120.6959224194</v>
+        <v>24.55497326942177</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.76141106446053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.20072364419415</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.38601365063988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.435594765867058</v>
+        <v>6.161951563041083</v>
       </c>
       <c r="D20">
-        <v>3.421329069062694</v>
+        <v>8.021282071181584</v>
       </c>
       <c r="E20">
-        <v>13.7299304362925</v>
+        <v>10.0419026526379</v>
       </c>
       <c r="F20">
-        <v>18.9530281154838</v>
+        <v>19.53642775132417</v>
       </c>
       <c r="G20">
-        <v>1.978455962723994</v>
+        <v>19.55091962405598</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.873372518252505</v>
       </c>
       <c r="I20">
-        <v>14.57917402150676</v>
+        <v>3.669016738242261</v>
       </c>
       <c r="J20">
-        <v>10.36183412167703</v>
+        <v>8.201403437361058</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.55463466928929</v>
       </c>
       <c r="L20">
-        <v>10.95582591453386</v>
+        <v>6.346402700990788</v>
       </c>
       <c r="M20">
-        <v>123.6924761330091</v>
+        <v>24.75797732623905</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.43647687800891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.55717117701869</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.06192850725162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.030266396720379</v>
+        <v>6.51365500268639</v>
       </c>
       <c r="D21">
-        <v>3.795938699743304</v>
+        <v>8.39979010127567</v>
       </c>
       <c r="E21">
-        <v>15.24612618798691</v>
+        <v>10.43334144345259</v>
       </c>
       <c r="F21">
-        <v>22.23387946536347</v>
+        <v>19.91450013311174</v>
       </c>
       <c r="G21">
-        <v>1.953625388823824</v>
+        <v>19.96314877430572</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.126313824391691</v>
       </c>
       <c r="I21">
-        <v>17.0845414885271</v>
+        <v>3.868185190230415</v>
       </c>
       <c r="J21">
-        <v>11.42290093863028</v>
+        <v>8.145347000821959</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.7020006290355</v>
       </c>
       <c r="L21">
-        <v>12.04773021569038</v>
+        <v>6.439042732752463</v>
       </c>
       <c r="M21">
-        <v>134.1074595704453</v>
+        <v>26.16096472261621</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.94500222774028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.7082053433109</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.07565191708541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.506286152723783</v>
+        <v>6.780653908547935</v>
       </c>
       <c r="D22">
-        <v>4.07799866373567</v>
+        <v>8.59823903750179</v>
       </c>
       <c r="E22">
-        <v>16.36762276413779</v>
+        <v>10.60600507377492</v>
       </c>
       <c r="F22">
-        <v>24.78801060330645</v>
+        <v>20.12266781919983</v>
       </c>
       <c r="G22">
-        <v>1.935438878287635</v>
+        <v>20.2105128731245</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.284033542291018</v>
       </c>
       <c r="I22">
-        <v>18.9906156839182</v>
+        <v>3.992149980422708</v>
       </c>
       <c r="J22">
-        <v>12.19814216912392</v>
+        <v>8.106532408384044</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.79981248813307</v>
       </c>
       <c r="L22">
-        <v>12.84144999831435</v>
+        <v>6.475773500627809</v>
       </c>
       <c r="M22">
-        <v>141.4199297948182</v>
+        <v>27.04970872114177</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.83896613936788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.38250671930917</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.07837807623196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.241913367056742</v>
+        <v>6.678911554149739</v>
       </c>
       <c r="D23">
-        <v>3.92275154497873</v>
+        <v>8.487790049023522</v>
       </c>
       <c r="E23">
-        <v>15.75241231914474</v>
+        <v>10.51304081760049</v>
       </c>
       <c r="F23">
-        <v>23.37756522183406</v>
+        <v>20.0329784880807</v>
       </c>
       <c r="G23">
-        <v>1.945389967503726</v>
+        <v>20.1175732372049</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.200826257511414</v>
       </c>
       <c r="I23">
-        <v>17.94158402459845</v>
+        <v>3.924100197969659</v>
       </c>
       <c r="J23">
-        <v>11.7738270261726</v>
+        <v>8.133367715076689</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.77262204433429</v>
       </c>
       <c r="L23">
-        <v>12.40741693987147</v>
+        <v>6.457041915332157</v>
       </c>
       <c r="M23">
-        <v>137.4483893404476</v>
+        <v>26.57970415859128</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.79790247011712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.02421676037813</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.09275275294505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.426970542119715</v>
+        <v>6.205326193731292</v>
       </c>
       <c r="D24">
-        <v>3.415619639333534</v>
+        <v>8.067191122408728</v>
       </c>
       <c r="E24">
-        <v>13.70657228295548</v>
+        <v>10.15666852088981</v>
       </c>
       <c r="F24">
-        <v>18.90474537466456</v>
+        <v>19.67935288416361</v>
       </c>
       <c r="G24">
-        <v>1.978839702893027</v>
+        <v>19.74217842938403</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.878145644031389</v>
       </c>
       <c r="I24">
-        <v>14.54159241331598</v>
+        <v>3.664594703413186</v>
       </c>
       <c r="J24">
-        <v>10.34536074982391</v>
+        <v>8.233004240032752</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.6413687376434</v>
       </c>
       <c r="L24">
-        <v>10.93881912703476</v>
+        <v>6.383751355768908</v>
       </c>
       <c r="M24">
-        <v>123.5270499655081</v>
+        <v>24.71837212706028</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.39863079557784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.61147833381414</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.14143348787068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.790537134332495</v>
+        <v>5.640323972606017</v>
       </c>
       <c r="D25">
-        <v>3.282010909891808</v>
+        <v>7.592946548859268</v>
       </c>
       <c r="E25">
-        <v>11.78333714394971</v>
+        <v>9.760262706497462</v>
       </c>
       <c r="F25">
-        <v>15.29834279218463</v>
+        <v>19.34488533175168</v>
       </c>
       <c r="G25">
-        <v>2.010424490001216</v>
+        <v>19.42555901000195</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.606596099427761</v>
       </c>
       <c r="I25">
-        <v>11.62305694565333</v>
+        <v>3.37434770562194</v>
       </c>
       <c r="J25">
-        <v>8.973974273134031</v>
+        <v>8.357718760063614</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.52758804667613</v>
       </c>
       <c r="L25">
-        <v>9.516658880019598</v>
+        <v>6.302450481585879</v>
       </c>
       <c r="M25">
-        <v>109.3553664248924</v>
+        <v>22.53883056730468</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.42559392547061</v>
+        <v>17.96571414770833</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.23674122087998</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.294907483190551</v>
+        <v>4.325963175944934</v>
       </c>
       <c r="D2">
-        <v>7.214000040940974</v>
+        <v>7.320035720925383</v>
       </c>
       <c r="E2">
-        <v>9.456446719804545</v>
+        <v>9.483577528780208</v>
       </c>
       <c r="F2">
-        <v>19.19451679954401</v>
+        <v>18.7725094895872</v>
       </c>
       <c r="G2">
-        <v>19.36692313553932</v>
+        <v>17.92962118472066</v>
       </c>
       <c r="H2">
-        <v>1.891609307734453</v>
+        <v>1.899717749300633</v>
       </c>
       <c r="I2">
-        <v>3.146895714439</v>
+        <v>3.160879717838903</v>
       </c>
       <c r="J2">
-        <v>8.478724946392655</v>
+        <v>8.796501035886221</v>
       </c>
       <c r="K2">
-        <v>13.52987091724074</v>
+        <v>12.99840262022823</v>
       </c>
       <c r="L2">
-        <v>6.242815994503448</v>
+        <v>11.76230352539871</v>
       </c>
       <c r="M2">
-        <v>20.78800075199542</v>
+        <v>7.563513840307612</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.229872647823352</v>
       </c>
       <c r="O2">
-        <v>16.64703940005483</v>
+        <v>20.77710844976646</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.38060981055738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.67015047584595</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.07680005328564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.968174178260421</v>
+        <v>4.101423104610332</v>
       </c>
       <c r="D3">
-        <v>6.956158475304732</v>
+        <v>7.052744919439055</v>
       </c>
       <c r="E3">
-        <v>9.246930851123279</v>
+        <v>9.280784444538611</v>
       </c>
       <c r="F3">
-        <v>19.08297009681702</v>
+        <v>18.71484485029831</v>
       </c>
       <c r="G3">
-        <v>19.30788155991156</v>
+        <v>17.99848574531011</v>
       </c>
       <c r="H3">
-        <v>2.094557182415813</v>
+        <v>2.092857750638637</v>
       </c>
       <c r="I3">
-        <v>2.988318550058827</v>
+        <v>3.023146138963877</v>
       </c>
       <c r="J3">
-        <v>8.559436334261315</v>
+        <v>8.852936075507897</v>
       </c>
       <c r="K3">
-        <v>13.50775768741183</v>
+        <v>13.02641119208764</v>
       </c>
       <c r="L3">
-        <v>6.199844762491296</v>
+        <v>11.89658303933031</v>
       </c>
       <c r="M3">
-        <v>19.50819161544574</v>
+        <v>7.452995333200335</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.193836230891604</v>
       </c>
       <c r="O3">
-        <v>15.69144374356136</v>
+        <v>19.50491691655468</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.47296164737623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.71097262771836</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.20131353595768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.75072050923082</v>
+        <v>3.950399163372813</v>
       </c>
       <c r="D4">
-        <v>6.794279679323916</v>
+        <v>6.885191748986824</v>
       </c>
       <c r="E4">
-        <v>9.116018344811936</v>
+        <v>9.154456821950097</v>
       </c>
       <c r="F4">
-        <v>19.02435349164567</v>
+        <v>18.68810715228251</v>
       </c>
       <c r="G4">
-        <v>19.28837269083427</v>
+        <v>18.0587963269461</v>
       </c>
       <c r="H4">
-        <v>2.223615492474039</v>
+        <v>2.215719544399684</v>
       </c>
       <c r="I4">
-        <v>2.887725651609796</v>
+        <v>2.935878259928485</v>
       </c>
       <c r="J4">
-        <v>8.612365018297796</v>
+        <v>8.88924530528894</v>
       </c>
       <c r="K4">
-        <v>13.49911628604625</v>
+        <v>13.04678584084514</v>
       </c>
       <c r="L4">
-        <v>6.17275843440818</v>
+        <v>11.97994088769805</v>
       </c>
       <c r="M4">
-        <v>18.6771322524458</v>
+        <v>7.408371072418617</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.171147791588441</v>
       </c>
       <c r="O4">
-        <v>15.07397826105567</v>
+        <v>18.67893195611039</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.53743453354411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.09093628655343</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.28410712092458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.643912129897044</v>
+        <v>3.871768274234799</v>
       </c>
       <c r="D5">
-        <v>6.729055068275779</v>
+        <v>6.817678023720266</v>
       </c>
       <c r="E5">
-        <v>9.062407683908862</v>
+        <v>9.10283946525076</v>
       </c>
       <c r="F5">
-        <v>18.99680677548016</v>
+        <v>18.67347808112513</v>
       </c>
       <c r="G5">
-        <v>19.27347537005988</v>
+        <v>18.07704076869611</v>
       </c>
       <c r="H5">
-        <v>2.277564314840443</v>
+        <v>2.267082669308888</v>
       </c>
       <c r="I5">
-        <v>2.846259109832938</v>
+        <v>2.900233373841688</v>
       </c>
       <c r="J5">
-        <v>8.633118266850541</v>
+        <v>8.902868586348015</v>
       </c>
       <c r="K5">
-        <v>13.49009915793526</v>
+        <v>13.04957235662854</v>
       </c>
       <c r="L5">
-        <v>6.161287592183861</v>
+        <v>12.00866580041635</v>
       </c>
       <c r="M5">
-        <v>18.32690071211569</v>
+        <v>7.392118884346534</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.161516840972158</v>
       </c>
       <c r="O5">
-        <v>14.8151383849938</v>
+        <v>18.33089068241015</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.56132119615754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.83094477131581</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.31535146967501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.608865887356539</v>
+        <v>3.841730706962031</v>
       </c>
       <c r="D6">
-        <v>6.720086400954117</v>
+        <v>6.808307725843053</v>
       </c>
       <c r="E6">
-        <v>9.053807100393794</v>
+        <v>9.094587280400344</v>
       </c>
       <c r="F6">
-        <v>18.98493362065449</v>
+        <v>18.66402602265189</v>
       </c>
       <c r="G6">
-        <v>19.25781285443539</v>
+        <v>18.0673593372687</v>
       </c>
       <c r="H6">
-        <v>2.286863781739057</v>
+        <v>2.275931357901082</v>
       </c>
       <c r="I6">
-        <v>2.839942351170951</v>
+        <v>2.895242419385162</v>
       </c>
       <c r="J6">
-        <v>8.634608653377365</v>
+        <v>8.903221290604449</v>
       </c>
       <c r="K6">
-        <v>13.48048220303704</v>
+        <v>13.04240478012419</v>
       </c>
       <c r="L6">
-        <v>6.159060883126116</v>
+        <v>12.00676886070071</v>
       </c>
       <c r="M6">
-        <v>18.2677570649968</v>
+        <v>7.384866425120343</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.159613135563048</v>
       </c>
       <c r="O6">
-        <v>14.77218016569373</v>
+        <v>18.27213313868839</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.5601918777588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.78777748766796</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.31571296862399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.703726618306661</v>
+        <v>3.909954425184169</v>
       </c>
       <c r="D7">
-        <v>6.798552417221364</v>
+        <v>6.892453925743815</v>
       </c>
       <c r="E7">
-        <v>9.116209545657838</v>
+        <v>9.155246705455978</v>
       </c>
       <c r="F7">
-        <v>19.00369856181712</v>
+        <v>18.65666243215289</v>
       </c>
       <c r="G7">
-        <v>19.25151408805969</v>
+        <v>18.09126522729493</v>
       </c>
       <c r="H7">
-        <v>2.225070667644508</v>
+        <v>2.217527762113553</v>
       </c>
       <c r="I7">
-        <v>2.888522988442329</v>
+        <v>2.93719122379108</v>
       </c>
       <c r="J7">
-        <v>8.607167263197336</v>
+        <v>8.856456193714807</v>
       </c>
       <c r="K7">
-        <v>13.47662619879945</v>
+        <v>13.01862763055239</v>
       </c>
       <c r="L7">
-        <v>6.171766076174056</v>
+        <v>11.95638218736321</v>
       </c>
       <c r="M7">
-        <v>18.67163917579005</v>
+        <v>7.389192525202069</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.169723105938763</v>
       </c>
       <c r="O7">
-        <v>15.07178656779992</v>
+        <v>18.67302102124385</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.52352117109002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.08945349213672</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.26302291120628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.129765772290428</v>
+        <v>4.213076759084373</v>
       </c>
       <c r="D8">
-        <v>7.132408910768315</v>
+        <v>7.244960640429763</v>
       </c>
       <c r="E8">
-        <v>9.385920395052398</v>
+        <v>9.417206260130737</v>
       </c>
       <c r="F8">
-        <v>19.12744585194545</v>
+        <v>18.68670244527967</v>
       </c>
       <c r="G8">
-        <v>19.29477639022871</v>
+        <v>18.12996761333004</v>
       </c>
       <c r="H8">
-        <v>1.961589131629762</v>
+        <v>1.967624125159837</v>
       </c>
       <c r="I8">
-        <v>3.094202831500009</v>
+        <v>3.114969539044058</v>
       </c>
       <c r="J8">
-        <v>8.498598247927514</v>
+        <v>8.718573709900477</v>
       </c>
       <c r="K8">
-        <v>13.49171973256084</v>
+        <v>12.95612680975054</v>
       </c>
       <c r="L8">
-        <v>6.227084293755602</v>
+        <v>11.76806706212409</v>
       </c>
       <c r="M8">
-        <v>20.3551568515788</v>
+        <v>7.481698205152236</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.214997721506649</v>
       </c>
       <c r="O8">
-        <v>16.32551867399381</v>
+        <v>20.34541314362358</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.39193951260387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.34971940209473</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.0739117319273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.905261398313699</v>
+        <v>4.756213269907141</v>
       </c>
       <c r="D9">
-        <v>7.74707663888919</v>
+        <v>7.885419145706518</v>
       </c>
       <c r="E9">
-        <v>9.893637553652921</v>
+        <v>9.911174287530908</v>
       </c>
       <c r="F9">
-        <v>19.48654568241645</v>
+        <v>18.89466412937524</v>
       </c>
       <c r="G9">
-        <v>19.58509865999374</v>
+        <v>18.17350520319824</v>
       </c>
       <c r="H9">
-        <v>1.640860075265752</v>
+        <v>1.611729077080117</v>
       </c>
       <c r="I9">
-        <v>3.471180231273691</v>
+        <v>3.441563751045079</v>
       </c>
       <c r="J9">
-        <v>8.323372803598787</v>
+        <v>8.567899778825321</v>
       </c>
       <c r="K9">
-        <v>13.60188006490463</v>
+        <v>12.92366858611119</v>
       </c>
       <c r="L9">
-        <v>6.331483839098434</v>
+        <v>11.45660433107826</v>
       </c>
       <c r="M9">
-        <v>23.29719050427633</v>
+        <v>7.888047045804068</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.302551427639432</v>
       </c>
       <c r="O9">
-        <v>18.5345222394602</v>
+        <v>23.27009841984873</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.22487005116358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.56587937206593</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.80965924041729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.395291178837432</v>
+        <v>5.129835267331609</v>
       </c>
       <c r="D10">
-        <v>8.103156572940033</v>
+        <v>8.273483954637088</v>
       </c>
       <c r="E10">
-        <v>10.09962952701824</v>
+        <v>10.11072301910254</v>
       </c>
       <c r="F10">
-        <v>19.64921165131994</v>
+        <v>18.88725272284406</v>
       </c>
       <c r="G10">
-        <v>19.707384751126</v>
+        <v>18.54073708466038</v>
       </c>
       <c r="H10">
-        <v>1.959604030015507</v>
+        <v>1.912810674342091</v>
       </c>
       <c r="I10">
-        <v>3.731079810705069</v>
+        <v>3.665792454049007</v>
       </c>
       <c r="J10">
-        <v>8.184383309677798</v>
+        <v>8.293344419754467</v>
       </c>
       <c r="K10">
-        <v>13.63637018933542</v>
+        <v>12.81587102567146</v>
       </c>
       <c r="L10">
-        <v>6.35751447805384</v>
+        <v>11.16488406932109</v>
       </c>
       <c r="M10">
-        <v>25.25899028424737</v>
+        <v>8.190452405081844</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.315291142414094</v>
       </c>
       <c r="O10">
-        <v>19.90999526721525</v>
+        <v>25.21873040403719</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.07230984353285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.94777825079076</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.53946703766714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.709995540987254</v>
+        <v>5.525998304660498</v>
       </c>
       <c r="D11">
-        <v>7.624932268178827</v>
+        <v>7.815574794500589</v>
       </c>
       <c r="E11">
-        <v>8.973094995729582</v>
+        <v>8.96620140717452</v>
       </c>
       <c r="F11">
-        <v>18.46694982536376</v>
+        <v>17.61354825023933</v>
       </c>
       <c r="G11">
-        <v>18.27298856542296</v>
+        <v>17.99984780347745</v>
       </c>
       <c r="H11">
-        <v>2.859046721936031</v>
+        <v>2.821559638000199</v>
       </c>
       <c r="I11">
-        <v>3.822294663619077</v>
+        <v>3.743754695897979</v>
       </c>
       <c r="J11">
-        <v>7.890918679110342</v>
+        <v>7.80901234911173</v>
       </c>
       <c r="K11">
-        <v>13.08299534759998</v>
+        <v>12.22682846844199</v>
       </c>
       <c r="L11">
-        <v>6.061331295991493</v>
+        <v>10.69347252090358</v>
       </c>
       <c r="M11">
-        <v>26.28641681303599</v>
+        <v>7.847663724516886</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.017568077311449</v>
       </c>
       <c r="O11">
-        <v>19.70002032097991</v>
+        <v>26.23957380311451</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.40334656826715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.74400168838155</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.81788950407246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.937613952345692</v>
+        <v>5.83205291950126</v>
       </c>
       <c r="D12">
-        <v>7.141157467226855</v>
+        <v>7.330747696255601</v>
       </c>
       <c r="E12">
-        <v>8.157801798380317</v>
+        <v>8.128551217217323</v>
       </c>
       <c r="F12">
-        <v>17.45921842197283</v>
+        <v>16.6129640131344</v>
       </c>
       <c r="G12">
-        <v>17.07277979732159</v>
+        <v>17.23749530571893</v>
       </c>
       <c r="H12">
-        <v>4.135581704192701</v>
+        <v>4.109039194919072</v>
       </c>
       <c r="I12">
-        <v>3.845885813434793</v>
+        <v>3.762777691369158</v>
       </c>
       <c r="J12">
-        <v>7.681352768758855</v>
+        <v>7.595220908405686</v>
       </c>
       <c r="K12">
-        <v>12.63705375313067</v>
+        <v>11.808258683149</v>
       </c>
       <c r="L12">
-        <v>5.95503120371073</v>
+        <v>10.40382433384349</v>
       </c>
       <c r="M12">
-        <v>26.7593157170859</v>
+        <v>7.531073178537144</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.915856787711586</v>
       </c>
       <c r="O12">
-        <v>19.2285153705741</v>
+        <v>26.71063222472526</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.8913499686974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.27468120082563</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.32208463799289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.065270248338548</v>
+        <v>6.035479757461754</v>
       </c>
       <c r="D13">
-        <v>6.62325696444932</v>
+        <v>6.789228151484868</v>
       </c>
       <c r="E13">
-        <v>7.585328580826658</v>
+        <v>7.532546618027027</v>
       </c>
       <c r="F13">
-        <v>16.4939536543577</v>
+        <v>15.75590429692566</v>
       </c>
       <c r="G13">
-        <v>15.91879221338557</v>
+        <v>16.01591338664455</v>
       </c>
       <c r="H13">
-        <v>5.469550857151218</v>
+        <v>5.450969787927422</v>
       </c>
       <c r="I13">
-        <v>3.820992282318206</v>
+        <v>3.741813336546359</v>
       </c>
       <c r="J13">
-        <v>7.516441542390892</v>
+        <v>7.540285049479341</v>
       </c>
       <c r="K13">
-        <v>12.21141623879541</v>
+        <v>11.47776402829617</v>
       </c>
       <c r="L13">
-        <v>5.990303277501445</v>
+        <v>10.21257078433245</v>
       </c>
       <c r="M13">
-        <v>26.84830949799976</v>
+        <v>7.202016472256918</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.959664093525774</v>
       </c>
       <c r="O13">
-        <v>18.5144108505111</v>
+        <v>26.80200631027484</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.44977545560334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.55835114897027</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.96581404490892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.10125077534337</v>
+        <v>6.125517661083768</v>
       </c>
       <c r="D14">
-        <v>6.245819819800944</v>
+        <v>6.385725085108948</v>
       </c>
       <c r="E14">
-        <v>7.358530200994497</v>
+        <v>7.292615485006724</v>
       </c>
       <c r="F14">
-        <v>15.84104609666346</v>
+        <v>15.21970063137932</v>
       </c>
       <c r="G14">
-        <v>15.13096445129642</v>
+        <v>14.97025652783918</v>
       </c>
       <c r="H14">
-        <v>6.453274677411737</v>
+        <v>6.46421906975392</v>
       </c>
       <c r="I14">
-        <v>3.782327622380139</v>
+        <v>3.710010781045058</v>
       </c>
       <c r="J14">
-        <v>7.422071217784644</v>
+        <v>7.553281453264721</v>
       </c>
       <c r="K14">
-        <v>11.91911704934499</v>
+        <v>11.28008551783885</v>
       </c>
       <c r="L14">
-        <v>6.0962441665377</v>
+        <v>10.11523912214988</v>
       </c>
       <c r="M14">
-        <v>26.73824253277559</v>
+        <v>6.962321502607503</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.072291748235972</v>
       </c>
       <c r="O14">
-        <v>17.89443740812633</v>
+        <v>26.6954923978771</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.17498891562689</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>17.93474634554291</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.77674565446804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.073864720706498</v>
+        <v>6.112047125564097</v>
       </c>
       <c r="D15">
-        <v>6.147576559765121</v>
+        <v>6.277465569206899</v>
       </c>
       <c r="E15">
-        <v>7.328852187570887</v>
+        <v>7.261646603396048</v>
       </c>
       <c r="F15">
-        <v>15.68740992744715</v>
+        <v>15.11100537880626</v>
       </c>
       <c r="G15">
-        <v>14.94175039455014</v>
+        <v>14.63426224508546</v>
       </c>
       <c r="H15">
-        <v>6.691893393492338</v>
+        <v>6.702215577467594</v>
       </c>
       <c r="I15">
-        <v>3.762937238336843</v>
+        <v>3.694590167784948</v>
       </c>
       <c r="J15">
-        <v>7.407292926484835</v>
+        <v>7.57855348480414</v>
       </c>
       <c r="K15">
-        <v>11.84610910517</v>
+        <v>11.24232039661209</v>
       </c>
       <c r="L15">
-        <v>6.130393070824424</v>
+        <v>10.10444296504807</v>
       </c>
       <c r="M15">
-        <v>26.62829210023498</v>
+        <v>6.895907660623584</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.108371871945389</v>
       </c>
       <c r="O15">
-        <v>17.69065297324342</v>
+        <v>26.58729807621731</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.12002118592903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>17.7291713092218</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.75336727164555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.836177150491338</v>
+        <v>5.879047866045047</v>
       </c>
       <c r="D16">
-        <v>6.083397514304338</v>
+        <v>6.183594639989272</v>
       </c>
       <c r="E16">
-        <v>7.341224206449298</v>
+        <v>7.287457251820594</v>
       </c>
       <c r="F16">
-        <v>15.79946274707419</v>
+        <v>15.35703584647639</v>
       </c>
       <c r="G16">
-        <v>15.09128120576876</v>
+        <v>14.12181250892014</v>
       </c>
       <c r="H16">
-        <v>6.480096341819</v>
+        <v>6.48945920686552</v>
       </c>
       <c r="I16">
-        <v>3.658557485673199</v>
+        <v>3.608099600018114</v>
       </c>
       <c r="J16">
-        <v>7.499425575826042</v>
+        <v>7.811033816404484</v>
       </c>
       <c r="K16">
-        <v>11.90230327924153</v>
+        <v>11.39451436240957</v>
       </c>
       <c r="L16">
-        <v>6.103442133195639</v>
+        <v>10.26289809841455</v>
       </c>
       <c r="M16">
-        <v>25.81860903374206</v>
+        <v>6.875973375730725</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.085228852906559</v>
       </c>
       <c r="O16">
-        <v>17.21686093838414</v>
+        <v>25.78558238602336</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.27214324127852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.24785858671847</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.99211690756694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.62696724625517</v>
+        <v>5.649497132458349</v>
       </c>
       <c r="D17">
-        <v>6.238491414667708</v>
+        <v>6.332612407221062</v>
       </c>
       <c r="E17">
-        <v>7.441717688289703</v>
+        <v>7.40140629501163</v>
       </c>
       <c r="F17">
-        <v>16.22835520581831</v>
+        <v>15.81699397120517</v>
       </c>
       <c r="G17">
-        <v>15.62149673689185</v>
+        <v>14.37236771929498</v>
       </c>
       <c r="H17">
-        <v>5.736152890216948</v>
+        <v>5.74583769121924</v>
       </c>
       <c r="I17">
-        <v>3.598918661730472</v>
+        <v>3.558201446627585</v>
       </c>
       <c r="J17">
-        <v>7.618942378648116</v>
+        <v>7.987967641770324</v>
       </c>
       <c r="K17">
-        <v>12.09991957774635</v>
+        <v>11.60835242609915</v>
       </c>
       <c r="L17">
-        <v>6.01481452246529</v>
+        <v>10.43867758982045</v>
       </c>
       <c r="M17">
-        <v>25.24431939292693</v>
+        <v>6.979183830851627</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.99690480890053</v>
       </c>
       <c r="O17">
-        <v>17.19354123898076</v>
+        <v>25.21507400785399</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.53107387770524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.22163133011982</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.26725271101023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.456047564669625</v>
+        <v>5.424274320416243</v>
       </c>
       <c r="D18">
-        <v>6.603481442796665</v>
+        <v>6.704927392293743</v>
       </c>
       <c r="E18">
-        <v>7.787919215295918</v>
+        <v>7.76281857943341</v>
       </c>
       <c r="F18">
-        <v>17.00001460306166</v>
+        <v>16.55922456943487</v>
       </c>
       <c r="G18">
-        <v>16.56590886448518</v>
+        <v>15.15690643010589</v>
       </c>
       <c r="H18">
-        <v>4.467099502498055</v>
+        <v>4.478955059985822</v>
       </c>
       <c r="I18">
-        <v>3.570556915121106</v>
+        <v>3.532867768416069</v>
       </c>
       <c r="J18">
-        <v>7.780940040744371</v>
+        <v>8.159216387457652</v>
       </c>
       <c r="K18">
-        <v>12.45778810762643</v>
+        <v>11.93010312771266</v>
       </c>
       <c r="L18">
-        <v>5.937134454048191</v>
+        <v>10.67238257546451</v>
       </c>
       <c r="M18">
-        <v>24.82021017929552</v>
+        <v>7.219020396413306</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.916609036942686</v>
       </c>
       <c r="O18">
-        <v>17.55857416980779</v>
+        <v>24.79204690326027</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.9248356579608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.586406350963</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.63480841356744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.265519735935514</v>
+        <v>5.157482534436737</v>
       </c>
       <c r="D19">
-        <v>7.123634622855117</v>
+        <v>7.239939890523979</v>
       </c>
       <c r="E19">
-        <v>8.503929862262529</v>
+        <v>8.494797278153168</v>
       </c>
       <c r="F19">
-        <v>17.97619904055641</v>
+        <v>17.47083076065049</v>
       </c>
       <c r="G19">
-        <v>17.72678055996191</v>
+        <v>16.20808318014335</v>
       </c>
       <c r="H19">
-        <v>2.958178555940379</v>
+        <v>2.962021751029283</v>
       </c>
       <c r="I19">
-        <v>3.576694667404138</v>
+        <v>3.538697753944287</v>
       </c>
       <c r="J19">
-        <v>7.96096946907277</v>
+        <v>8.320851145988732</v>
       </c>
       <c r="K19">
-        <v>12.88443379327014</v>
+        <v>12.29043124618213</v>
       </c>
       <c r="L19">
-        <v>5.985166414532727</v>
+        <v>10.91963871157519</v>
       </c>
       <c r="M19">
-        <v>24.55497326942177</v>
+        <v>7.524525632366366</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.959754007548394</v>
       </c>
       <c r="O19">
-        <v>18.20072364419415</v>
+        <v>24.52589174621688</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.38601365063988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.22986702977736</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.04510007654418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.161951563041083</v>
+        <v>4.918153739293288</v>
       </c>
       <c r="D20">
-        <v>8.021282071181584</v>
+        <v>8.17348418613401</v>
       </c>
       <c r="E20">
-        <v>10.0419026526379</v>
+        <v>10.05251165669369</v>
       </c>
       <c r="F20">
-        <v>19.53642775132417</v>
+        <v>18.86306187955004</v>
       </c>
       <c r="G20">
-        <v>19.55091962405598</v>
+        <v>18.07409983021772</v>
       </c>
       <c r="H20">
-        <v>1.873372518252505</v>
+        <v>1.832459752065144</v>
       </c>
       <c r="I20">
-        <v>3.669016738242261</v>
+        <v>3.617471143455999</v>
       </c>
       <c r="J20">
-        <v>8.201403437361058</v>
+        <v>8.440396245513277</v>
       </c>
       <c r="K20">
-        <v>13.55463466928929</v>
+        <v>12.8035204821406</v>
       </c>
       <c r="L20">
-        <v>6.346402700990788</v>
+        <v>11.21404328681247</v>
       </c>
       <c r="M20">
-        <v>24.75797732623905</v>
+        <v>8.071191949742767</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.309223441187767</v>
       </c>
       <c r="O20">
-        <v>19.55717117701869</v>
+        <v>24.72246892782156</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.06192850725162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.59134766323388</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.59334277426252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.51365500268639</v>
+        <v>5.242358696943731</v>
       </c>
       <c r="D21">
-        <v>8.39979010127567</v>
+        <v>8.6295763286209</v>
       </c>
       <c r="E21">
-        <v>10.43334144345259</v>
+        <v>10.4545868005106</v>
       </c>
       <c r="F21">
-        <v>19.91450013311174</v>
+        <v>18.88038737268506</v>
       </c>
       <c r="G21">
-        <v>19.96314877430572</v>
+        <v>19.99347230387512</v>
       </c>
       <c r="H21">
-        <v>2.126313824391691</v>
+        <v>2.065628225006305</v>
       </c>
       <c r="I21">
-        <v>3.868185190230415</v>
+        <v>3.782532885103081</v>
       </c>
       <c r="J21">
-        <v>8.145347000821959</v>
+        <v>7.852093684835102</v>
       </c>
       <c r="K21">
-        <v>13.7020006290355</v>
+        <v>12.68923278651396</v>
       </c>
       <c r="L21">
-        <v>6.439042732752463</v>
+        <v>10.97324564647876</v>
       </c>
       <c r="M21">
-        <v>26.16096472261621</v>
+        <v>8.291175219326107</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.383332639130712</v>
       </c>
       <c r="O21">
-        <v>20.7082053433109</v>
+        <v>26.10921969500168</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.07565191708541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.7569890354657</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.34629959890519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.780653908547935</v>
+        <v>5.500914379321146</v>
       </c>
       <c r="D22">
-        <v>8.59823903750179</v>
+        <v>8.880608303132927</v>
       </c>
       <c r="E22">
-        <v>10.60600507377492</v>
+        <v>10.63533134648084</v>
       </c>
       <c r="F22">
-        <v>20.12266781919983</v>
+        <v>18.83887286991905</v>
       </c>
       <c r="G22">
-        <v>20.2105128731245</v>
+        <v>21.36823547484875</v>
       </c>
       <c r="H22">
-        <v>2.284033542291018</v>
+        <v>2.21097644339058</v>
       </c>
       <c r="I22">
-        <v>3.992149980422708</v>
+        <v>3.883771242891521</v>
       </c>
       <c r="J22">
-        <v>8.106532408384044</v>
+        <v>7.526122043306763</v>
       </c>
       <c r="K22">
-        <v>13.79981248813307</v>
+        <v>12.60563195147074</v>
       </c>
       <c r="L22">
-        <v>6.475773500627809</v>
+        <v>10.81223722190624</v>
       </c>
       <c r="M22">
-        <v>27.04970872114177</v>
+        <v>8.435207834807859</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.408249326408777</v>
       </c>
       <c r="O22">
-        <v>21.38250671930917</v>
+        <v>26.98772202502143</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.07837807623196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.44065644275746</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.16438154182653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.678911554149739</v>
+        <v>5.391104622481515</v>
       </c>
       <c r="D23">
-        <v>8.487790049023522</v>
+        <v>8.735190517287581</v>
       </c>
       <c r="E23">
-        <v>10.51304081760049</v>
+        <v>10.53610582761161</v>
       </c>
       <c r="F23">
-        <v>20.0329784880807</v>
+        <v>18.91113681288537</v>
       </c>
       <c r="G23">
-        <v>20.1175732372049</v>
+        <v>20.48139080616173</v>
       </c>
       <c r="H23">
-        <v>2.200826257511414</v>
+        <v>2.134940588334692</v>
       </c>
       <c r="I23">
-        <v>3.924100197969659</v>
+        <v>3.827240892744225</v>
       </c>
       <c r="J23">
-        <v>8.133367715076689</v>
+        <v>7.736838335908176</v>
       </c>
       <c r="K23">
-        <v>13.77262204433429</v>
+        <v>12.69150575331024</v>
       </c>
       <c r="L23">
-        <v>6.457041915332157</v>
+        <v>10.92362747275967</v>
       </c>
       <c r="M23">
-        <v>26.57970415859128</v>
+        <v>8.39509772476366</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.396711219095651</v>
       </c>
       <c r="O23">
-        <v>21.02421676037813</v>
+        <v>26.52385718814437</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.09275275294505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.07608129246197</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.29769449407114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.205326193731292</v>
+        <v>4.950981414328738</v>
       </c>
       <c r="D24">
-        <v>8.067191122408728</v>
+        <v>8.220399668574942</v>
       </c>
       <c r="E24">
-        <v>10.15666852088981</v>
+        <v>10.16858000401272</v>
       </c>
       <c r="F24">
-        <v>19.67935288416361</v>
+        <v>18.99999206883664</v>
       </c>
       <c r="G24">
-        <v>19.74217842938403</v>
+        <v>18.24372370335515</v>
       </c>
       <c r="H24">
-        <v>1.878145644031389</v>
+        <v>1.837010758917322</v>
       </c>
       <c r="I24">
-        <v>3.664594703413186</v>
+        <v>3.611115556043466</v>
       </c>
       <c r="J24">
-        <v>8.233004240032752</v>
+        <v>8.471805404337761</v>
       </c>
       <c r="K24">
-        <v>13.6413687376434</v>
+        <v>12.8813424270431</v>
       </c>
       <c r="L24">
-        <v>6.383751355768908</v>
+        <v>11.26863001026272</v>
       </c>
       <c r="M24">
-        <v>24.71837212706028</v>
+        <v>8.134998734981151</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.346152233073578</v>
       </c>
       <c r="O24">
-        <v>19.61147833381414</v>
+        <v>24.6827807094326</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.14143348787068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.64571654136926</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.6669403426787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.640323972606017</v>
+        <v>4.547547629014251</v>
       </c>
       <c r="D25">
-        <v>7.592946548859268</v>
+        <v>7.72021967421181</v>
       </c>
       <c r="E25">
-        <v>9.760262706497462</v>
+        <v>9.780381548598257</v>
       </c>
       <c r="F25">
-        <v>19.34488533175168</v>
+        <v>18.81276079005083</v>
       </c>
       <c r="G25">
-        <v>19.42555901000195</v>
+        <v>17.98249070758607</v>
       </c>
       <c r="H25">
-        <v>1.606596099427761</v>
+        <v>1.629516461257362</v>
       </c>
       <c r="I25">
-        <v>3.37434770562194</v>
+        <v>3.360219652838439</v>
       </c>
       <c r="J25">
-        <v>8.357718760063614</v>
+        <v>8.636506628635763</v>
       </c>
       <c r="K25">
-        <v>13.52758804667613</v>
+        <v>12.90285749715628</v>
       </c>
       <c r="L25">
-        <v>6.302450481585879</v>
+        <v>11.52103390619631</v>
       </c>
       <c r="M25">
-        <v>22.53883056730468</v>
+        <v>7.737953390936375</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.278659020652882</v>
       </c>
       <c r="O25">
-        <v>17.96571414770833</v>
+        <v>22.51681087641513</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.23674122087998</v>
+        <v>17.9945279634808</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.86260101544159</v>
       </c>
     </row>
   </sheetData>
